--- a/doc/Bug_Report_2014_1208-2.xlsx
+++ b/doc/Bug_Report_2014_1208-2.xlsx
@@ -788,7 +788,7 @@
       <name val="µØ±d¤¤¶ÂÅé¥~¦r¶°"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -840,6 +840,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="18"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="19"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="20"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -1164,7 +1176,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1180,13 +1192,13 @@
     <xf numFmtId="1" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1198,13 +1210,13 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1234,7 +1246,7 @@
     <xf numFmtId="1" fontId="5" fillId="5" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1333,40 +1345,97 @@
     <xf numFmtId="1" fontId="2" fillId="6" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="7" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="7" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="7" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="7" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="7" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="2" fillId="7" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="2" fillId="7" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="7" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="9" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="9" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="9" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="9" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="9" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="9" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="9" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="6" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="8" fillId="7" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="8" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="6" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1390,10 +1459,10 @@
     <xf numFmtId="1" fontId="16" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="9" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="6" fillId="11" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="16" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1450,10 +1519,10 @@
     <xf numFmtId="1" fontId="16" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="9" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="8" fillId="11" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="16" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1480,37 +1549,19 @@
     <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="9" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="9" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="9" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="9" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="9" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1522,22 +1573,16 @@
     <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1573,7 +1618,9 @@
       <rgbColor rgb="ff9ce159"/>
       <rgbColor rgb="ff0000ff"/>
       <rgbColor rgb="ff489bc9"/>
+      <rgbColor rgb="fff1d030"/>
       <rgbColor rgb="fff9ecac"/>
+      <rgbColor rgb="ffffe061"/>
       <rgbColor rgb="ffff0000"/>
       <rgbColor rgb="ffffff00"/>
     </indexedColors>
@@ -1637,7 +1684,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:rowOff>85723</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1647,7 +1694,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="600075" y="1805304"/>
-          <a:ext cx="1905000" cy="446405"/>
+          <a:ext cx="1905000" cy="446404"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1786,8 +1833,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3289300" y="2394584"/>
-          <a:ext cx="1212850" cy="1151891"/>
+          <a:off x="3289300" y="2394583"/>
+          <a:ext cx="1212850" cy="1151892"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1861,15 +1908,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>343340</xdr:colOff>
+      <xdr:colOff>362534</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>45401</xdr:rowOff>
+      <xdr:rowOff>156843</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>705290</xdr:colOff>
+      <xdr:colOff>762585</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>64451</xdr:rowOff>
+      <xdr:rowOff>175893</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1878,10 +1925,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8865040" y="3709351"/>
-          <a:ext cx="5010152" cy="1485901"/>
-          <a:chOff x="-1" y="0"/>
-          <a:chExt cx="5010151" cy="1485900"/>
+          <a:off x="8884234" y="3820793"/>
+          <a:ext cx="5048252" cy="1485901"/>
+          <a:chOff x="0" y="0"/>
+          <a:chExt cx="5048251" cy="1485900"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp>
@@ -1891,8 +1938,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="-2" y="0"/>
-            <a:ext cx="4895853" cy="1485900"/>
+            <a:off x="-1" y="0"/>
+            <a:ext cx="4895852" cy="1485900"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1924,8 +1971,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="-2" y="534036"/>
-            <a:ext cx="5010153" cy="686432"/>
+            <a:off x="-1" y="578803"/>
+            <a:ext cx="5048252" cy="686432"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1989,15 +2036,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>268537</xdr:colOff>
+      <xdr:colOff>288161</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>63735</xdr:rowOff>
+      <xdr:rowOff>100171</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>754313</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>37337</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>111361</xdr:rowOff>
+      <xdr:rowOff>166908</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2006,10 +2053,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3367337" y="3727685"/>
-          <a:ext cx="1260477" cy="466727"/>
+          <a:off x="3386961" y="3764121"/>
+          <a:ext cx="1298577" cy="485838"/>
           <a:chOff x="0" y="-1"/>
-          <a:chExt cx="1260475" cy="466726"/>
+          <a:chExt cx="1298576" cy="485836"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp>
@@ -2020,7 +2067,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="-1" y="-2"/>
-            <a:ext cx="1146176" cy="466727"/>
+            <a:ext cx="1146177" cy="466728"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2052,8 +2099,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="0" y="132372"/>
-            <a:ext cx="1260475" cy="331823"/>
+            <a:off x="0" y="154014"/>
+            <a:ext cx="1298576" cy="331822"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2160,15 +2207,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>639885</xdr:colOff>
+      <xdr:colOff>659472</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>6585</xdr:rowOff>
+      <xdr:rowOff>43021</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>439861</xdr:colOff>
+      <xdr:colOff>497549</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>54211</xdr:rowOff>
+      <xdr:rowOff>109758</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2177,10 +2224,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2963985" y="4927835"/>
-          <a:ext cx="1349377" cy="466727"/>
+          <a:off x="2983572" y="4964271"/>
+          <a:ext cx="1387478" cy="485838"/>
           <a:chOff x="0" y="-1"/>
-          <a:chExt cx="1349375" cy="466726"/>
+          <a:chExt cx="1387477" cy="485836"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp>
@@ -2190,8 +2237,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="0" y="-2"/>
-            <a:ext cx="1235076" cy="466727"/>
+            <a:off x="-1" y="-2"/>
+            <a:ext cx="1235079" cy="466728"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2223,8 +2270,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="0" y="132372"/>
-            <a:ext cx="1349376" cy="331823"/>
+            <a:off x="-1" y="154014"/>
+            <a:ext cx="1387479" cy="331822"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2442,7 +2489,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="90" name="image15.png"/>
+        <xdr:cNvPr id="90" name="image11.png"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2481,7 +2528,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>187322</xdr:rowOff>
+      <xdr:rowOff>187321</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2491,7 +2538,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2466975" y="3660776"/>
-          <a:ext cx="1473200" cy="400047"/>
+          <a:ext cx="1473200" cy="400046"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2567,7 +2614,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>196849</xdr:rowOff>
+      <xdr:rowOff>196848</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
@@ -2585,8 +2632,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3203575" y="3860799"/>
-          <a:ext cx="0" cy="628649"/>
+          <a:off x="3203575" y="3860798"/>
+          <a:ext cx="0" cy="628650"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2608,15 +2655,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>3915</xdr:colOff>
+      <xdr:colOff>23211</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>118535</xdr:rowOff>
+      <xdr:rowOff>197204</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>608837</xdr:colOff>
+      <xdr:colOff>666234</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>119730</xdr:rowOff>
+      <xdr:rowOff>198401</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2625,10 +2672,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3877415" y="2944285"/>
-          <a:ext cx="2929023" cy="1048946"/>
-          <a:chOff x="0" y="0"/>
-          <a:chExt cx="2929022" cy="1048944"/>
+          <a:off x="3896711" y="3022954"/>
+          <a:ext cx="2967124" cy="1048948"/>
+          <a:chOff x="-1" y="-1"/>
+          <a:chExt cx="2967123" cy="1048947"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp>
@@ -2638,8 +2685,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="-1" y="-1"/>
-            <a:ext cx="2863546" cy="1048946"/>
+            <a:off x="-2" y="-2"/>
+            <a:ext cx="2863548" cy="1048949"/>
           </a:xfrm>
           <a:custGeom>
             <a:avLst/>
@@ -2737,8 +2784,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="569212" y="371737"/>
-            <a:ext cx="2359810" cy="421643"/>
+            <a:off x="569212" y="399236"/>
+            <a:ext cx="2397911" cy="421643"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2866,7 +2913,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="98" name="image16.png"/>
+        <xdr:cNvPr id="98" name="image12.png"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2905,7 +2952,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>428623</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>19048</xdr:rowOff>
+      <xdr:rowOff>19047</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2914,7 +2961,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4972048" y="950594"/>
+          <a:off x="4972048" y="950593"/>
           <a:ext cx="879476" cy="512445"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2944,14 +2991,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>460504</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>191899</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1589</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>516021</xdr:colOff>
+      <xdr:colOff>554121</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>67816</xdr:rowOff>
+      <xdr:rowOff>87055</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2960,8 +3007,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3559304" y="3646299"/>
-          <a:ext cx="2379618" cy="295018"/>
+          <a:off x="3559304" y="3665539"/>
+          <a:ext cx="2417717" cy="295017"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3014,71 +3061,7 @@
               <a:cs typeface="+mn-cs"/>
               <a:sym typeface="Helvetica"/>
             </a:rPr>
-            <a:t>請修正為</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:sym typeface="Helvetica"/>
-            </a:rPr>
-            <a:t>0</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:sym typeface="Helvetica"/>
-            </a:rPr>
-            <a:t>到</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:sym typeface="Helvetica"/>
-            </a:rPr>
-            <a:t>15</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:sym typeface="Helvetica"/>
-            </a:rPr>
-            <a:t>的選項</a:t>
+            <a:t>請修正為0到15的選項</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3100,7 +3083,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="101" name="image17.png"/>
+        <xdr:cNvPr id="101" name="image13.png"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3113,8 +3096,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2581275" y="2759074"/>
-          <a:ext cx="6330950" cy="2171701"/>
+          <a:off x="2581275" y="2759073"/>
+          <a:ext cx="6330950" cy="2171702"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3143,7 +3126,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="102" name="image18.png"/>
+        <xdr:cNvPr id="102" name="image14.png"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3156,8 +3139,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7048500" y="3311525"/>
-          <a:ext cx="2286000" cy="361950"/>
+          <a:off x="7048499" y="3311525"/>
+          <a:ext cx="2286001" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3174,7 +3157,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>114299</xdr:colOff>
+      <xdr:colOff>114298</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
@@ -3186,7 +3169,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="103" name="image19.png"/>
+        <xdr:cNvPr id="103" name="image15.png"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3199,8 +3182,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4762500" y="3292475"/>
-          <a:ext cx="2238375" cy="381000"/>
+          <a:off x="4762498" y="3292475"/>
+          <a:ext cx="2238377" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3234,7 +3217,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="105" name="image20.png"/>
+        <xdr:cNvPr id="105" name="image16.png"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3282,8 +3265,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4657725" y="1741804"/>
-          <a:ext cx="571500" cy="1626871"/>
+          <a:off x="4657725" y="1741803"/>
+          <a:ext cx="571500" cy="1626872"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3311,15 +3294,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>619355</xdr:colOff>
+      <xdr:colOff>638632</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>692</xdr:rowOff>
+      <xdr:rowOff>80123</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>687704</xdr:colOff>
+      <xdr:colOff>745083</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>128251</xdr:rowOff>
+      <xdr:rowOff>207684</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3328,10 +3311,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5267555" y="1685347"/>
-          <a:ext cx="3167150" cy="1059105"/>
-          <a:chOff x="0" y="0"/>
-          <a:chExt cx="3167148" cy="1059103"/>
+          <a:off x="5286832" y="1764778"/>
+          <a:ext cx="3205252" cy="1059107"/>
+          <a:chOff x="-1" y="-1"/>
+          <a:chExt cx="3205250" cy="1059105"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp>
@@ -3341,8 +3324,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="-1" y="-1"/>
-            <a:ext cx="2887526" cy="1059105"/>
+            <a:off x="-2" y="-2"/>
+            <a:ext cx="2887528" cy="1059107"/>
           </a:xfrm>
           <a:custGeom>
             <a:avLst/>
@@ -3440,8 +3423,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="787897" y="348877"/>
-            <a:ext cx="2379252" cy="295017"/>
+            <a:off x="787897" y="368117"/>
+            <a:ext cx="2417353" cy="295018"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3494,71 +3477,7 @@
                 <a:cs typeface="+mn-cs"/>
                 <a:sym typeface="Helvetica"/>
               </a:rPr>
-              <a:t>請修正為</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-                <a:uFillTx/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-                <a:sym typeface="Helvetica"/>
-              </a:rPr>
-              <a:t>0</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-                <a:uFillTx/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-                <a:sym typeface="Helvetica"/>
-              </a:rPr>
-              <a:t>到</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-                <a:uFillTx/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-                <a:sym typeface="Helvetica"/>
-              </a:rPr>
-              <a:t>15</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-                <a:uFillTx/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-                <a:sym typeface="Helvetica"/>
-              </a:rPr>
-              <a:t>的選項</a:t>
+              <a:t>請修正為0到15的選項</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -3582,11 +3501,11 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:rowOff>161923</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="111" name="image21.png"/>
+        <xdr:cNvPr id="111" name="image17.png"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3600,7 +3519,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2324100" y="240665"/>
-          <a:ext cx="5813425" cy="5471160"/>
+          <a:ext cx="5813425" cy="5471159"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3629,7 +3548,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="112" name="image22.png"/>
+        <xdr:cNvPr id="112" name="image18.png"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3642,8 +3561,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2333625" y="5692775"/>
-          <a:ext cx="5746750" cy="3152775"/>
+          <a:off x="2333625" y="5692773"/>
+          <a:ext cx="5746750" cy="3152777"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3677,8 +3596,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2428875" y="7826375"/>
-          <a:ext cx="1250950" cy="561975"/>
+          <a:off x="2428875" y="7826374"/>
+          <a:ext cx="1250950" cy="561976"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3714,11 +3633,11 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:rowOff>180973</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="114" name="image23.png"/>
+        <xdr:cNvPr id="114" name="image19.png"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3732,7 +3651,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2324100" y="9112250"/>
-          <a:ext cx="5153025" cy="5000625"/>
+          <a:ext cx="5153025" cy="5000624"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3749,15 +3668,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
+      <xdr:colOff>190498</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:rowOff>171448</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:colOff>333374</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3766,8 +3685,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5613400" y="12007850"/>
-          <a:ext cx="917575" cy="1952625"/>
+          <a:off x="5613398" y="12007849"/>
+          <a:ext cx="917577" cy="1952626"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3812,7 +3731,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="117" name="image24.png" descr="操作介面改善1.png"/>
+        <xdr:cNvPr id="117" name="image20.png" descr="操作介面改善1.png"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3854,13 +3773,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>651990</xdr:colOff>
+      <xdr:colOff>651989</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>146850</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="119" name="image25.png" descr="行程安排.PNG"/>
+        <xdr:cNvPr id="119" name="image21.png" descr="行程安排.PNG"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3874,7 +3793,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3606800" y="1143000"/>
-          <a:ext cx="8564092" cy="5734851"/>
+          <a:ext cx="8564090" cy="5734850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3904,11 +3823,11 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>819149</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>163194</xdr:rowOff>
+      <xdr:rowOff>163193</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="121" name="image26.png" descr="意外通報顯示時間錯誤.png"/>
+        <xdr:cNvPr id="121" name="image22.png" descr="意外通報顯示時間錯誤.png"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3956,7 +3875,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="123" name="image27.jpg"/>
+        <xdr:cNvPr id="123" name="image5.jpeg"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4004,7 +3923,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="125" name="image28.png"/>
+        <xdr:cNvPr id="125" name="image23.png"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4052,7 +3971,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="127" name="image29.png"/>
+        <xdr:cNvPr id="127" name="image24.png"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4131,13 +4050,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>590548</xdr:colOff>
+      <xdr:colOff>590547</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>149223</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>514348</xdr:colOff>
+      <xdr:colOff>514347</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>177798</xdr:rowOff>
     </xdr:to>
@@ -4148,7 +4067,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4464048" y="4651373"/>
+          <a:off x="4464047" y="4651373"/>
           <a:ext cx="3797301" cy="447676"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4177,13 +4096,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>600073</xdr:colOff>
+      <xdr:colOff>600072</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>542923</xdr:colOff>
+      <xdr:colOff>542922</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>187325</xdr:rowOff>
     </xdr:to>
@@ -4194,7 +4113,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4473573" y="2984499"/>
+          <a:off x="4473572" y="2984499"/>
           <a:ext cx="3816351" cy="447676"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4223,13 +4142,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>590548</xdr:colOff>
+      <xdr:colOff>590547</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>206373</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>514348</xdr:colOff>
+      <xdr:colOff>514347</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>25398</xdr:rowOff>
     </xdr:to>
@@ -4240,7 +4159,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4464048" y="5127623"/>
+          <a:off x="4464047" y="5127623"/>
           <a:ext cx="3797301" cy="447676"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4416,13 +4335,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>101598</xdr:rowOff>
+      <xdr:rowOff>101597</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>15874</xdr:rowOff>
+      <xdr:rowOff>15873</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4432,7 +4351,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5422900" y="6070598"/>
-          <a:ext cx="3527425" cy="333377"/>
+          <a:ext cx="3527425" cy="333376"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4468,7 +4387,7 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>666748</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>25395</xdr:rowOff>
+      <xdr:rowOff>25394</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4478,7 +4397,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9534524" y="6080124"/>
-          <a:ext cx="3527425" cy="333373"/>
+          <a:ext cx="3527425" cy="333371"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4595,7 +4514,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>314321</xdr:colOff>
+      <xdr:colOff>314319</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
@@ -4612,8 +4531,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17357721" y="4432300"/>
-          <a:ext cx="612779" cy="333375"/>
+          <a:off x="17357720" y="4432300"/>
+          <a:ext cx="612780" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4641,7 +4560,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>314321</xdr:colOff>
+      <xdr:colOff>314319</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
@@ -4658,8 +4577,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17357721" y="3956049"/>
-          <a:ext cx="612779" cy="333375"/>
+          <a:off x="17357720" y="3956049"/>
+          <a:ext cx="612780" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4687,7 +4606,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>314321</xdr:colOff>
+      <xdr:colOff>314319</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>130173</xdr:rowOff>
     </xdr:from>
@@ -4704,8 +4623,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17357721" y="3584573"/>
-          <a:ext cx="612779" cy="333376"/>
+          <a:off x="17357720" y="3584573"/>
+          <a:ext cx="612780" cy="333376"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4733,7 +4652,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>314321</xdr:colOff>
+      <xdr:colOff>314319</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>101598</xdr:rowOff>
     </xdr:from>
@@ -4750,8 +4669,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17357721" y="5232398"/>
-          <a:ext cx="1273179" cy="333376"/>
+          <a:off x="17357720" y="5232398"/>
+          <a:ext cx="1273180" cy="333376"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4779,15 +4698,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>186159</xdr:colOff>
+      <xdr:colOff>205414</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>102343</xdr:rowOff>
+      <xdr:rowOff>201014</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>618286</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>160690</xdr:rowOff>
+      <xdr:colOff>675643</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>49813</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4796,10 +4715,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18004259" y="3556743"/>
-          <a:ext cx="3530927" cy="1315648"/>
-          <a:chOff x="0" y="0"/>
-          <a:chExt cx="3530926" cy="1315646"/>
+          <a:off x="18023514" y="3655414"/>
+          <a:ext cx="3569029" cy="1315650"/>
+          <a:chOff x="0" y="-2"/>
+          <a:chExt cx="3569027" cy="1315649"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp>
@@ -4809,8 +4728,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="0" y="-2"/>
-            <a:ext cx="3465450" cy="1315648"/>
+            <a:off x="0" y="-3"/>
+            <a:ext cx="3465451" cy="1315651"/>
           </a:xfrm>
           <a:custGeom>
             <a:avLst/>
@@ -4908,8 +4827,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1171119" y="420631"/>
-            <a:ext cx="2359808" cy="260988"/>
+            <a:off x="1171119" y="437652"/>
+            <a:ext cx="2397909" cy="260988"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -5019,15 +4938,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>671120</xdr:colOff>
+      <xdr:colOff>690409</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>119430</xdr:rowOff>
+      <xdr:rowOff>204350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>608820</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>203965</xdr:rowOff>
+      <xdr:colOff>666209</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>79337</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -5036,10 +4955,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18489220" y="6088430"/>
-          <a:ext cx="3036501" cy="1132286"/>
+          <a:off x="18508509" y="6173350"/>
+          <a:ext cx="3074602" cy="1132288"/>
           <a:chOff x="0" y="0"/>
-          <a:chExt cx="3036500" cy="1132285"/>
+          <a:chExt cx="3074601" cy="1132286"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp>
@@ -5049,8 +4968,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="0" y="-1"/>
-            <a:ext cx="2971024" cy="1132287"/>
+            <a:off x="-1" y="-1"/>
+            <a:ext cx="2971025" cy="1132288"/>
           </a:xfrm>
           <a:custGeom>
             <a:avLst/>
@@ -5151,8 +5070,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="676692" y="503894"/>
-            <a:ext cx="2359809" cy="421643"/>
+            <a:off x="676691" y="531392"/>
+            <a:ext cx="2397910" cy="421643"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -5364,15 +5283,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>343341</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>191549</xdr:rowOff>
+      <xdr:colOff>362535</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47134</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>705290</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>155985</xdr:rowOff>
+      <xdr:colOff>762585</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>11570</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -5381,10 +5300,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8865041" y="191549"/>
-          <a:ext cx="5010151" cy="686432"/>
+          <a:off x="8884235" y="287799"/>
+          <a:ext cx="5048252" cy="686432"/>
           <a:chOff x="0" y="0"/>
-          <a:chExt cx="5010150" cy="686431"/>
+          <a:chExt cx="5048250" cy="686431"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp>
@@ -5394,8 +5313,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="0" y="207573"/>
-            <a:ext cx="4895850" cy="3176"/>
+            <a:off x="0" y="162805"/>
+            <a:ext cx="4895850" cy="3177"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -5428,7 +5347,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="0" y="0"/>
-            <a:ext cx="5010151" cy="686432"/>
+            <a:ext cx="5048251" cy="686432"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -5492,15 +5411,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>268538</xdr:colOff>
+      <xdr:colOff>288163</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>92739</xdr:rowOff>
+      <xdr:rowOff>139266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>754314</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>37340</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>183895</xdr:rowOff>
+      <xdr:rowOff>230422</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -5509,10 +5428,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3367338" y="92739"/>
-          <a:ext cx="1260477" cy="331822"/>
+          <a:off x="3386963" y="139266"/>
+          <a:ext cx="1298578" cy="331822"/>
           <a:chOff x="0" y="0"/>
-          <a:chExt cx="1260475" cy="331821"/>
+          <a:chExt cx="1298577" cy="331821"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp>
@@ -5522,8 +5441,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="0" y="99483"/>
-            <a:ext cx="1146175" cy="3176"/>
+            <a:off x="0" y="77842"/>
+            <a:ext cx="1146176" cy="3177"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -5556,7 +5475,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="0" y="0"/>
-            <a:ext cx="1260476" cy="331822"/>
+            <a:ext cx="1298578" cy="331822"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -5620,15 +5539,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>639885</xdr:colOff>
+      <xdr:colOff>659472</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>92739</xdr:rowOff>
+      <xdr:rowOff>139266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>439861</xdr:colOff>
+      <xdr:colOff>497549</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>183895</xdr:rowOff>
+      <xdr:rowOff>230422</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -5637,10 +5556,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2963985" y="92739"/>
-          <a:ext cx="1349377" cy="331822"/>
+          <a:off x="2983572" y="139266"/>
+          <a:ext cx="1387478" cy="331822"/>
           <a:chOff x="0" y="0"/>
-          <a:chExt cx="1349375" cy="331821"/>
+          <a:chExt cx="1387477" cy="331821"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp>
@@ -5650,8 +5569,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="0" y="99483"/>
-            <a:ext cx="1235075" cy="3176"/>
+            <a:off x="0" y="77842"/>
+            <a:ext cx="1235076" cy="3177"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -5684,7 +5603,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="0" y="0"/>
-            <a:ext cx="1349376" cy="331822"/>
+            <a:ext cx="1387478" cy="331822"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -5897,7 +5816,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="image7.jpeg" descr="1203-3"/>
+        <xdr:cNvPr id="60" name="image1.jpeg" descr="1203-3"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -6051,7 +5970,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="image8.png"/>
+        <xdr:cNvPr id="62" name="image7.png"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -6099,7 +6018,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="image9.jpeg" descr="1203-7"/>
+        <xdr:cNvPr id="64" name="image2.jpeg" descr="1203-7"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -6138,11 +6057,11 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>149224</xdr:rowOff>
+      <xdr:rowOff>149223</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="image10.jpeg" descr="1203-4"/>
+        <xdr:cNvPr id="65" name="image3.jpeg" descr="1203-4"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -6156,7 +6075,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="228600" y="636905"/>
-          <a:ext cx="13792200" cy="10582915"/>
+          <a:ext cx="13792200" cy="10582914"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6173,15 +6092,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>676219</xdr:colOff>
+      <xdr:colOff>676191</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>3158</xdr:rowOff>
+      <xdr:rowOff>3151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>495137</xdr:colOff>
+      <xdr:colOff>495164</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>126957</xdr:rowOff>
+      <xdr:rowOff>126963</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6190,8 +6109,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5324419" y="14318604"/>
-          <a:ext cx="2143019" cy="542900"/>
+          <a:off x="5324391" y="14318596"/>
+          <a:ext cx="2143074" cy="542914"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6213,7 +6132,7 @@
           </a:cxnLst>
           <a:rect l="0" t="0" r="r" b="b"/>
           <a:pathLst>
-            <a:path w="19678" h="19678" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="19679" h="19679" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="16796" y="2882"/>
               </a:moveTo>
@@ -6264,15 +6183,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>666694</xdr:colOff>
+      <xdr:colOff>666666</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>69833</xdr:rowOff>
+      <xdr:rowOff>69825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>485611</xdr:colOff>
+      <xdr:colOff>485528</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>193634</xdr:rowOff>
+      <xdr:rowOff>193641</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6281,8 +6200,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5314894" y="16271229"/>
-          <a:ext cx="2143018" cy="542901"/>
+          <a:off x="5314866" y="16271221"/>
+          <a:ext cx="2142963" cy="542917"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6304,7 +6223,7 @@
           </a:cxnLst>
           <a:rect l="0" t="0" r="r" b="b"/>
           <a:pathLst>
-            <a:path w="19679" h="19678" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="19679" h="19679" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="16796" y="2882"/>
               </a:moveTo>
@@ -6363,11 +6282,11 @@
       <xdr:col>21</xdr:col>
       <xdr:colOff>533398</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>139699</xdr:rowOff>
+      <xdr:rowOff>139698</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="68" name="image7.jpeg" descr="1203-3"/>
+        <xdr:cNvPr id="68" name="image1.jpeg" descr="1203-3"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -6381,7 +6300,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3098800" y="627380"/>
-          <a:ext cx="13703299" cy="10582915"/>
+          <a:ext cx="13703299" cy="10582914"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6406,7 +6325,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>174624</xdr:rowOff>
+      <xdr:rowOff>174623</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6415,7 +6334,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="180975" y="2441574"/>
+          <a:off x="180975" y="2441573"/>
           <a:ext cx="889000" cy="380365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6444,15 +6363,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>609545</xdr:colOff>
+      <xdr:colOff>609518</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>117458</xdr:rowOff>
+      <xdr:rowOff>117451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>428569</xdr:colOff>
+      <xdr:colOff>428487</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>31707</xdr:rowOff>
+      <xdr:rowOff>31713</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6461,8 +6380,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8356545" y="16737954"/>
-          <a:ext cx="2143125" cy="542900"/>
+          <a:off x="8356517" y="16737946"/>
+          <a:ext cx="2143071" cy="542914"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6484,7 +6403,7 @@
           </a:cxnLst>
           <a:rect l="0" t="0" r="r" b="b"/>
           <a:pathLst>
-            <a:path w="19679" h="19678" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="19678" h="19679" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="16796" y="2882"/>
               </a:moveTo>
@@ -6535,15 +6454,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>619070</xdr:colOff>
+      <xdr:colOff>619042</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>50783</xdr:rowOff>
+      <xdr:rowOff>50775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>438095</xdr:colOff>
+      <xdr:colOff>438121</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>174584</xdr:rowOff>
+      <xdr:rowOff>174591</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6552,8 +6471,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8366069" y="17299929"/>
-          <a:ext cx="2143127" cy="542901"/>
+          <a:off x="8366042" y="17299921"/>
+          <a:ext cx="2143181" cy="542917"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6575,7 +6494,7 @@
           </a:cxnLst>
           <a:rect l="0" t="0" r="r" b="b"/>
           <a:pathLst>
-            <a:path w="19678" h="19678" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="19679" h="19679" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="16796" y="2882"/>
               </a:moveTo>
@@ -6626,15 +6545,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>774646</xdr:colOff>
+      <xdr:colOff>774619</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>107935</xdr:rowOff>
+      <xdr:rowOff>107927</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>504772</xdr:colOff>
+      <xdr:colOff>504798</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>22185</xdr:rowOff>
+      <xdr:rowOff>22191</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6643,8 +6562,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5422846" y="17776180"/>
-          <a:ext cx="2054227" cy="542902"/>
+          <a:off x="5422819" y="17776173"/>
+          <a:ext cx="2054280" cy="542915"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6666,7 +6585,7 @@
           </a:cxnLst>
           <a:rect l="0" t="0" r="r" b="b"/>
           <a:pathLst>
-            <a:path w="19678" h="19678" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="19679" h="19679" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="16796" y="2882"/>
               </a:moveTo>
@@ -6717,15 +6636,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>600019</xdr:colOff>
+      <xdr:colOff>599992</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>136510</xdr:rowOff>
+      <xdr:rowOff>136502</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>418936</xdr:colOff>
+      <xdr:colOff>418854</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>50760</xdr:rowOff>
+      <xdr:rowOff>50766</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6734,8 +6653,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8347019" y="18223855"/>
-          <a:ext cx="2143018" cy="542902"/>
+          <a:off x="8346991" y="18223848"/>
+          <a:ext cx="2142963" cy="542915"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6757,7 +6676,7 @@
           </a:cxnLst>
           <a:rect l="0" t="0" r="r" b="b"/>
           <a:pathLst>
-            <a:path w="19679" h="19678" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="19679" h="19679" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="16796" y="2882"/>
               </a:moveTo>
@@ -6808,15 +6727,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>609545</xdr:colOff>
+      <xdr:colOff>609518</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>69835</xdr:rowOff>
+      <xdr:rowOff>69827</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>428569</xdr:colOff>
+      <xdr:colOff>428487</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>193635</xdr:rowOff>
+      <xdr:rowOff>193641</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6825,8 +6744,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8356545" y="18785830"/>
-          <a:ext cx="2143125" cy="542902"/>
+          <a:off x="8356517" y="18785823"/>
+          <a:ext cx="2143071" cy="542915"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6848,7 +6767,7 @@
           </a:cxnLst>
           <a:rect l="0" t="0" r="r" b="b"/>
           <a:pathLst>
-            <a:path w="19679" h="19678" fill="norm" stroke="1" extrusionOk="0">
+            <a:path w="19678" h="19679" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="16796" y="2882"/>
               </a:moveTo>
@@ -6901,13 +6820,13 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>371912</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>126999</xdr:rowOff>
+      <xdr:rowOff>126998</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>31748</xdr:rowOff>
+      <xdr:rowOff>31747</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6917,7 +6836,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7344212" y="2052318"/>
-          <a:ext cx="2504639" cy="2070737"/>
+          <a:ext cx="2504638" cy="2070736"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7022,7 +6941,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="76" name="image8.png"/>
+        <xdr:cNvPr id="76" name="image7.png"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -7070,7 +6989,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="78" name="image11.jpeg" descr="1203-8"/>
+        <xdr:cNvPr id="78" name="image4.jpeg" descr="1203-8"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -7118,8 +7037,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6379012" y="1501138"/>
-          <a:ext cx="2504638" cy="2073910"/>
+          <a:off x="6379012" y="1501137"/>
+          <a:ext cx="2504638" cy="2073912"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7224,7 +7143,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="80" name="image8.png"/>
+        <xdr:cNvPr id="80" name="image7.png"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -7260,15 +7179,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>639885</xdr:colOff>
+      <xdr:colOff>659472</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>6585</xdr:rowOff>
+      <xdr:rowOff>43021</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>439861</xdr:colOff>
+      <xdr:colOff>497549</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>54211</xdr:rowOff>
+      <xdr:rowOff>109758</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -7277,10 +7196,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2963985" y="4927835"/>
-          <a:ext cx="1349377" cy="466727"/>
+          <a:off x="2983572" y="4964271"/>
+          <a:ext cx="1387478" cy="485838"/>
           <a:chOff x="0" y="-1"/>
-          <a:chExt cx="1349375" cy="466726"/>
+          <a:chExt cx="1387477" cy="485836"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp>
@@ -7290,8 +7209,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="0" y="-2"/>
-            <a:ext cx="1235076" cy="466727"/>
+            <a:off x="-1" y="-2"/>
+            <a:ext cx="1235079" cy="466728"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -7323,8 +7242,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="0" y="132372"/>
-            <a:ext cx="1349376" cy="331823"/>
+            <a:off x="-1" y="154014"/>
+            <a:ext cx="1387479" cy="331822"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -7400,7 +7319,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="85" name="image12.png" descr="飯店輸入.png"/>
+        <xdr:cNvPr id="85" name="image8.png" descr="飯店輸入.png"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -7448,7 +7367,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="87" name="image13.png" descr="飯店查詢BUG.png"/>
+        <xdr:cNvPr id="87" name="image9.png" descr="飯店查詢BUG.png"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -7491,7 +7410,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="88" name="image14.png" descr="查詢飯店錯誤訊息.png"/>
+        <xdr:cNvPr id="88" name="image10.png" descr="查詢飯店錯誤訊息.png"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -9492,107 +9411,107 @@
       <c r="Q20" s="55"/>
     </row>
     <row r="21" ht="39.95" customHeight="1">
-      <c r="A21" s="33">
+      <c r="A21" s="56">
         <v>19</v>
       </c>
-      <c r="B21" s="34">
+      <c r="B21" s="57">
         <v>41981</v>
       </c>
-      <c r="C21" t="s" s="33">
+      <c r="C21" t="s" s="56">
         <v>33</v>
       </c>
-      <c r="D21" t="s" s="33">
+      <c r="D21" t="s" s="56">
         <v>70</v>
       </c>
-      <c r="E21" t="s" s="33">
+      <c r="E21" t="s" s="56">
         <v>45</v>
       </c>
-      <c r="F21" t="s" s="36">
+      <c r="F21" t="s" s="58">
         <v>74</v>
       </c>
-      <c r="G21" t="s" s="35">
+      <c r="G21" t="s" s="59">
         <v>75</v>
       </c>
-      <c r="H21" t="s" s="56">
+      <c r="H21" t="s" s="60">
         <v>73</v>
       </c>
-      <c r="I21" s="38"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="58"/>
-      <c r="Q21" s="59"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="65"/>
+      <c r="Q21" s="66"/>
     </row>
     <row r="22" ht="39.95" customHeight="1">
-      <c r="A22" s="33">
+      <c r="A22" s="56">
         <v>20</v>
       </c>
-      <c r="B22" s="34">
+      <c r="B22" s="57">
         <v>41981</v>
       </c>
-      <c r="C22" t="s" s="33">
+      <c r="C22" t="s" s="56">
         <v>33</v>
       </c>
-      <c r="D22" t="s" s="33">
+      <c r="D22" t="s" s="56">
         <v>70</v>
       </c>
-      <c r="E22" t="s" s="33">
+      <c r="E22" t="s" s="56">
         <v>34</v>
       </c>
-      <c r="F22" t="s" s="36">
+      <c r="F22" t="s" s="58">
         <v>76</v>
       </c>
-      <c r="G22" t="s" s="35">
+      <c r="G22" t="s" s="59">
         <v>77</v>
       </c>
-      <c r="H22" t="s" s="56">
+      <c r="H22" t="s" s="60">
         <v>73</v>
       </c>
-      <c r="I22" s="38"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="58"/>
-      <c r="Q22" s="59"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="66"/>
     </row>
     <row r="23" ht="39.95" customHeight="1">
-      <c r="A23" s="33">
+      <c r="A23" s="56">
         <v>21</v>
       </c>
-      <c r="B23" s="34">
+      <c r="B23" s="57">
         <v>41981</v>
       </c>
-      <c r="C23" t="s" s="33">
+      <c r="C23" t="s" s="56">
         <v>33</v>
       </c>
-      <c r="D23" t="s" s="33">
+      <c r="D23" t="s" s="56">
         <v>70</v>
       </c>
-      <c r="E23" t="s" s="33">
+      <c r="E23" t="s" s="56">
         <v>45</v>
       </c>
-      <c r="F23" t="s" s="36">
+      <c r="F23" t="s" s="58">
         <v>78</v>
       </c>
-      <c r="G23" t="s" s="35">
+      <c r="G23" t="s" s="59">
         <v>79</v>
       </c>
-      <c r="H23" s="60"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="58"/>
-      <c r="P23" s="58"/>
-      <c r="Q23" s="59"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="65"/>
+      <c r="P23" s="65"/>
+      <c r="Q23" s="66"/>
     </row>
     <row r="24" ht="39.95" customHeight="1">
       <c r="A24" s="33">
@@ -9616,16 +9535,16 @@
       <c r="G24" t="s" s="35">
         <v>81</v>
       </c>
-      <c r="H24" s="60"/>
+      <c r="H24" s="68"/>
       <c r="I24" s="38"/>
       <c r="J24" s="39"/>
       <c r="K24" s="40"/>
       <c r="L24" s="38"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="58"/>
-      <c r="P24" s="58"/>
-      <c r="Q24" s="59"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="13"/>
     </row>
     <row r="25" ht="39.95" customHeight="1">
       <c r="A25" s="33">
@@ -9649,16 +9568,16 @@
       <c r="G25" t="s" s="35">
         <v>85</v>
       </c>
-      <c r="H25" s="60"/>
+      <c r="H25" s="68"/>
       <c r="I25" s="38"/>
       <c r="J25" s="39"/>
       <c r="K25" s="40"/>
       <c r="L25" s="38"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="58"/>
-      <c r="P25" s="58"/>
-      <c r="Q25" s="59"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="13"/>
     </row>
     <row r="26" ht="39.95" customHeight="1">
       <c r="A26" s="33">
@@ -9682,16 +9601,16 @@
       <c r="G26" t="s" s="35">
         <v>87</v>
       </c>
-      <c r="H26" s="60"/>
+      <c r="H26" s="68"/>
       <c r="I26" s="38"/>
       <c r="J26" s="39"/>
       <c r="K26" s="40"/>
       <c r="L26" s="38"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="58"/>
-      <c r="P26" s="58"/>
-      <c r="Q26" s="59"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="13"/>
     </row>
     <row r="27" ht="40.5" customHeight="1">
       <c r="A27" s="33">
@@ -9715,19 +9634,19 @@
       <c r="G27" t="s" s="35">
         <v>90</v>
       </c>
-      <c r="H27" s="60"/>
+      <c r="H27" s="68"/>
       <c r="I27" s="38"/>
       <c r="J27" s="39"/>
       <c r="K27" s="40"/>
       <c r="L27" s="38"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="59"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="13"/>
     </row>
     <row r="28" ht="16.5" customHeight="1">
-      <c r="A28" s="61">
+      <c r="A28" s="69">
         <v>26</v>
       </c>
       <c r="B28" s="34">
@@ -9755,47 +9674,47 @@
       <c r="J28" s="39"/>
       <c r="K28" s="40"/>
       <c r="L28" s="38"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="58"/>
-      <c r="P28" s="58"/>
-      <c r="Q28" s="59"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="13"/>
     </row>
     <row r="29" ht="16.5" customHeight="1">
-      <c r="A29" s="62">
+      <c r="A29" s="70">
         <v>27</v>
       </c>
-      <c r="B29" s="34">
+      <c r="B29" s="57">
         <v>41982</v>
       </c>
-      <c r="C29" t="s" s="33">
+      <c r="C29" t="s" s="56">
         <v>33</v>
       </c>
-      <c r="D29" t="s" s="33">
+      <c r="D29" t="s" s="56">
         <v>96</v>
       </c>
-      <c r="E29" t="s" s="33">
+      <c r="E29" t="s" s="56">
         <v>92</v>
       </c>
-      <c r="F29" t="s" s="33">
+      <c r="F29" t="s" s="56">
         <v>97</v>
       </c>
-      <c r="G29" s="34"/>
-      <c r="H29" t="s" s="33">
+      <c r="G29" s="57"/>
+      <c r="H29" t="s" s="56">
         <v>98</v>
       </c>
-      <c r="I29" s="38"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="58"/>
-      <c r="Q29" s="59"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="64"/>
+      <c r="N29" s="65"/>
+      <c r="O29" s="65"/>
+      <c r="P29" s="65"/>
+      <c r="Q29" s="66"/>
     </row>
     <row r="30" ht="16.5" customHeight="1">
-      <c r="A30" s="62">
+      <c r="A30" s="71">
         <v>28</v>
       </c>
       <c r="B30" s="34">
@@ -9821,38 +9740,38 @@
       <c r="J30" s="39"/>
       <c r="K30" s="40"/>
       <c r="L30" s="38"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="58"/>
-      <c r="O30" s="58"/>
-      <c r="P30" s="58"/>
-      <c r="Q30" s="59"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="13"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="62">
+      <c r="A31" s="72">
         <v>29</v>
       </c>
-      <c r="B31" s="34">
+      <c r="B31" s="73">
         <v>41982</v>
       </c>
-      <c r="C31" t="s" s="33">
+      <c r="C31" t="s" s="74">
         <v>100</v>
       </c>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" t="s" s="63">
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" t="s" s="75">
         <v>101</v>
       </c>
-      <c r="I31" s="38"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="57"/>
-      <c r="N31" s="58"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="58"/>
-      <c r="Q31" s="59"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="76"/>
+      <c r="M31" s="79"/>
+      <c r="N31" s="80"/>
+      <c r="O31" s="80"/>
+      <c r="P31" s="80"/>
+      <c r="Q31" s="81"/>
     </row>
     <row r="32" ht="40.5" customHeight="1">
       <c r="A32" s="45">
@@ -9876,7 +9795,7 @@
       <c r="G32" t="s" s="48">
         <v>106</v>
       </c>
-      <c r="H32" s="64"/>
+      <c r="H32" s="82"/>
       <c r="I32" s="50"/>
       <c r="J32" s="51"/>
       <c r="K32" s="52"/>
@@ -9995,37 +9914,37 @@
       <c r="Q35" s="55"/>
     </row>
     <row r="36" ht="54" customHeight="1">
-      <c r="A36" s="33">
+      <c r="A36" s="56">
         <v>64</v>
       </c>
-      <c r="B36" s="34">
+      <c r="B36" s="57">
         <v>41981</v>
       </c>
-      <c r="C36" t="s" s="33">
+      <c r="C36" t="s" s="56">
         <v>102</v>
       </c>
-      <c r="D36" t="s" s="33">
+      <c r="D36" t="s" s="56">
         <v>103</v>
       </c>
-      <c r="E36" t="s" s="35">
+      <c r="E36" t="s" s="59">
         <v>112</v>
       </c>
-      <c r="F36" t="s" s="36">
+      <c r="F36" t="s" s="58">
         <v>116</v>
       </c>
-      <c r="G36" t="s" s="36">
+      <c r="G36" t="s" s="58">
         <v>117</v>
       </c>
-      <c r="H36" s="65"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="40"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="57"/>
-      <c r="N36" s="58"/>
-      <c r="O36" s="58"/>
-      <c r="P36" s="58"/>
-      <c r="Q36" s="59"/>
+      <c r="H36" s="83"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="64"/>
+      <c r="N36" s="65"/>
+      <c r="O36" s="65"/>
+      <c r="P36" s="65"/>
+      <c r="Q36" s="66"/>
     </row>
     <row r="37" ht="27" customHeight="1">
       <c r="A37" s="33">
@@ -10049,16 +9968,16 @@
       <c r="G37" t="s" s="36">
         <v>119</v>
       </c>
-      <c r="H37" s="65"/>
+      <c r="H37" s="84"/>
       <c r="I37" s="38"/>
       <c r="J37" s="39"/>
       <c r="K37" s="40"/>
       <c r="L37" s="38"/>
-      <c r="M37" s="57"/>
-      <c r="N37" s="58"/>
-      <c r="O37" s="58"/>
-      <c r="P37" s="58"/>
-      <c r="Q37" s="59"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="13"/>
     </row>
     <row r="38" ht="81" customHeight="1">
       <c r="A38" s="45">
@@ -10082,7 +10001,7 @@
       <c r="G38" t="s" s="47">
         <v>124</v>
       </c>
-      <c r="H38" s="66"/>
+      <c r="H38" s="85"/>
       <c r="I38" s="50"/>
       <c r="J38" s="51"/>
       <c r="K38" s="52"/>
@@ -10115,7 +10034,7 @@
       <c r="G39" t="s" s="47">
         <v>126</v>
       </c>
-      <c r="H39" s="66"/>
+      <c r="H39" s="85"/>
       <c r="I39" s="50"/>
       <c r="J39" s="51"/>
       <c r="K39" s="52"/>
@@ -10148,7 +10067,7 @@
       <c r="G40" t="s" s="47">
         <v>129</v>
       </c>
-      <c r="H40" s="66"/>
+      <c r="H40" s="85"/>
       <c r="I40" s="50"/>
       <c r="J40" s="51"/>
       <c r="K40" s="52"/>
@@ -10160,7 +10079,7 @@
       <c r="Q40" s="55"/>
     </row>
     <row r="41" ht="81" customHeight="1">
-      <c r="A41" s="67">
+      <c r="A41" s="86">
         <v>69</v>
       </c>
       <c r="B41" s="34">
@@ -10181,16 +10100,16 @@
       <c r="G41" t="s" s="36">
         <v>134</v>
       </c>
-      <c r="H41" s="65"/>
+      <c r="H41" s="84"/>
       <c r="I41" s="38"/>
       <c r="J41" s="39"/>
       <c r="K41" s="40"/>
       <c r="L41" s="38"/>
-      <c r="M41" s="68"/>
-      <c r="N41" s="69"/>
-      <c r="O41" s="69"/>
-      <c r="P41" s="69"/>
-      <c r="Q41" s="70"/>
+      <c r="M41" s="87"/>
+      <c r="N41" s="88"/>
+      <c r="O41" s="88"/>
+      <c r="P41" s="88"/>
+      <c r="Q41" s="89"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10209,85 +10128,85 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="88" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="88" customWidth="1"/>
-    <col min="3" max="3" width="7.625" style="88" customWidth="1"/>
-    <col min="4" max="4" width="7.625" style="88" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="88" customWidth="1"/>
-    <col min="6" max="256" width="7.625" style="88" customWidth="1"/>
+    <col min="1" max="1" width="7.625" style="107" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="107" customWidth="1"/>
+    <col min="3" max="3" width="7.625" style="107" customWidth="1"/>
+    <col min="4" max="4" width="7.625" style="107" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="107" customWidth="1"/>
+    <col min="6" max="256" width="7.625" style="107" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.95" customHeight="1">
-      <c r="A1" s="72"/>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
+      <c r="A1" s="91"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
     </row>
     <row r="2" ht="18.95" customHeight="1">
-      <c r="A2" s="74"/>
-      <c r="B2" t="s" s="75">
+      <c r="A2" s="93"/>
+      <c r="B2" t="s" s="94">
         <v>135</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="72"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="91"/>
     </row>
     <row r="3" ht="18.95" customHeight="1">
-      <c r="A3" s="74"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="72"/>
+      <c r="A3" s="93"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="91"/>
     </row>
     <row r="4" ht="18.95" customHeight="1">
-      <c r="A4" s="74"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="72"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="91"/>
     </row>
     <row r="5" ht="18.95" customHeight="1">
-      <c r="A5" s="72"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
+      <c r="A5" s="91"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
     </row>
     <row r="6" ht="18.95" customHeight="1">
-      <c r="A6" s="72"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
+      <c r="A6" s="91"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
     </row>
     <row r="7" ht="18.95" customHeight="1">
-      <c r="A7" s="72"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
+      <c r="A7" s="91"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
     </row>
     <row r="8" ht="18.95" customHeight="1">
-      <c r="A8" s="72"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
+      <c r="A8" s="91"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
     </row>
     <row r="9" ht="18.95" customHeight="1">
-      <c r="A9" s="72"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
+      <c r="A9" s="91"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
     </row>
     <row r="10" ht="18.95" customHeight="1">
-      <c r="A10" s="72"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10311,85 +10230,85 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="89" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="89" customWidth="1"/>
-    <col min="3" max="3" width="7.625" style="89" customWidth="1"/>
-    <col min="4" max="4" width="7.625" style="89" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="89" customWidth="1"/>
-    <col min="6" max="256" width="7.625" style="89" customWidth="1"/>
+    <col min="1" max="1" width="7.625" style="108" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="108" customWidth="1"/>
+    <col min="3" max="3" width="7.625" style="108" customWidth="1"/>
+    <col min="4" max="4" width="7.625" style="108" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="108" customWidth="1"/>
+    <col min="6" max="256" width="7.625" style="108" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.95" customHeight="1">
-      <c r="A1" s="72"/>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
+      <c r="A1" s="91"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
     </row>
     <row r="2" ht="18.95" customHeight="1">
-      <c r="A2" s="74"/>
-      <c r="B2" t="s" s="75">
+      <c r="A2" s="93"/>
+      <c r="B2" t="s" s="94">
         <v>135</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="72"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="91"/>
     </row>
     <row r="3" ht="18.95" customHeight="1">
-      <c r="A3" s="74"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="72"/>
+      <c r="A3" s="93"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="91"/>
     </row>
     <row r="4" ht="18.95" customHeight="1">
-      <c r="A4" s="74"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="72"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="91"/>
     </row>
     <row r="5" ht="18.95" customHeight="1">
-      <c r="A5" s="72"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
+      <c r="A5" s="91"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
     </row>
     <row r="6" ht="18.95" customHeight="1">
-      <c r="A6" s="72"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
+      <c r="A6" s="91"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
     </row>
     <row r="7" ht="18.95" customHeight="1">
-      <c r="A7" s="72"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
+      <c r="A7" s="91"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
     </row>
     <row r="8" ht="18.95" customHeight="1">
-      <c r="A8" s="72"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
+      <c r="A8" s="91"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
     </row>
     <row r="9" ht="18.95" customHeight="1">
-      <c r="A9" s="72"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
+      <c r="A9" s="91"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
     </row>
     <row r="10" ht="18.95" customHeight="1">
-      <c r="A10" s="72"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10413,85 +10332,85 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="90" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="90" customWidth="1"/>
-    <col min="3" max="3" width="7.625" style="90" customWidth="1"/>
-    <col min="4" max="4" width="7.625" style="90" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="90" customWidth="1"/>
-    <col min="6" max="256" width="7.625" style="90" customWidth="1"/>
+    <col min="1" max="1" width="7.625" style="109" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="109" customWidth="1"/>
+    <col min="3" max="3" width="7.625" style="109" customWidth="1"/>
+    <col min="4" max="4" width="7.625" style="109" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="109" customWidth="1"/>
+    <col min="6" max="256" width="7.625" style="109" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.95" customHeight="1">
-      <c r="A1" s="91"/>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="93"/>
+      <c r="A1" s="110"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="112"/>
     </row>
     <row r="2" ht="18.95" customHeight="1">
-      <c r="A2" s="94"/>
-      <c r="B2" t="s" s="95">
+      <c r="A2" s="113"/>
+      <c r="B2" t="s" s="114">
         <v>141</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="98"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="117"/>
     </row>
     <row r="3" ht="18.95" customHeight="1">
-      <c r="A3" s="94"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="98"/>
+      <c r="A3" s="113"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="117"/>
     </row>
     <row r="4" ht="18.95" customHeight="1">
-      <c r="A4" s="94"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="98"/>
+      <c r="A4" s="113"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="117"/>
     </row>
     <row r="5" ht="18.95" customHeight="1">
-      <c r="A5" s="94"/>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="98"/>
+      <c r="A5" s="113"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="117"/>
     </row>
     <row r="6" ht="18.95" customHeight="1">
-      <c r="A6" s="94"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="98"/>
+      <c r="A6" s="113"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="117"/>
     </row>
     <row r="7" ht="18.95" customHeight="1">
-      <c r="A7" s="94"/>
-      <c r="B7" s="97"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="98"/>
+      <c r="A7" s="113"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="117"/>
     </row>
     <row r="8" ht="18.95" customHeight="1">
-      <c r="A8" s="94"/>
-      <c r="B8" s="97"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="98"/>
+      <c r="A8" s="113"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="117"/>
     </row>
     <row r="9" ht="18.95" customHeight="1">
-      <c r="A9" s="94"/>
-      <c r="B9" s="97"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="98"/>
+      <c r="A9" s="113"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="117"/>
     </row>
     <row r="10" ht="18.95" customHeight="1">
-      <c r="A10" s="99"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="101"/>
+      <c r="A10" s="118"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10515,85 +10434,85 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="102" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="102" customWidth="1"/>
-    <col min="3" max="3" width="7.625" style="102" customWidth="1"/>
-    <col min="4" max="4" width="7.625" style="102" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="102" customWidth="1"/>
-    <col min="6" max="256" width="7.625" style="102" customWidth="1"/>
+    <col min="1" max="1" width="7.625" style="121" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="121" customWidth="1"/>
+    <col min="3" max="3" width="7.625" style="121" customWidth="1"/>
+    <col min="4" max="4" width="7.625" style="121" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="121" customWidth="1"/>
+    <col min="6" max="256" width="7.625" style="121" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.95" customHeight="1">
-      <c r="A1" s="91"/>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="93"/>
+      <c r="A1" s="110"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="112"/>
     </row>
     <row r="2" ht="18.95" customHeight="1">
-      <c r="A2" s="94"/>
-      <c r="B2" t="s" s="95">
+      <c r="A2" s="113"/>
+      <c r="B2" t="s" s="114">
         <v>141</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="98"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="117"/>
     </row>
     <row r="3" ht="18.95" customHeight="1">
-      <c r="A3" s="94"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="98"/>
+      <c r="A3" s="113"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="117"/>
     </row>
     <row r="4" ht="18.95" customHeight="1">
-      <c r="A4" s="94"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="98"/>
+      <c r="A4" s="113"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="117"/>
     </row>
     <row r="5" ht="18.95" customHeight="1">
-      <c r="A5" s="94"/>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="98"/>
+      <c r="A5" s="113"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="117"/>
     </row>
     <row r="6" ht="18.95" customHeight="1">
-      <c r="A6" s="94"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="98"/>
+      <c r="A6" s="113"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="117"/>
     </row>
     <row r="7" ht="18.95" customHeight="1">
-      <c r="A7" s="94"/>
-      <c r="B7" s="97"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="98"/>
+      <c r="A7" s="113"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="117"/>
     </row>
     <row r="8" ht="18.95" customHeight="1">
-      <c r="A8" s="94"/>
-      <c r="B8" s="97"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="98"/>
+      <c r="A8" s="113"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="117"/>
     </row>
     <row r="9" ht="18.95" customHeight="1">
-      <c r="A9" s="94"/>
-      <c r="B9" s="97"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="98"/>
+      <c r="A9" s="113"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="117"/>
     </row>
     <row r="10" ht="18.95" customHeight="1">
-      <c r="A10" s="99"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="101"/>
+      <c r="A10" s="118"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10617,85 +10536,85 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="103" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="103" customWidth="1"/>
-    <col min="3" max="3" width="7.625" style="103" customWidth="1"/>
-    <col min="4" max="4" width="7.625" style="103" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="103" customWidth="1"/>
-    <col min="6" max="256" width="7.625" style="103" customWidth="1"/>
+    <col min="1" max="1" width="7.625" style="122" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="122" customWidth="1"/>
+    <col min="3" max="3" width="7.625" style="122" customWidth="1"/>
+    <col min="4" max="4" width="7.625" style="122" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="122" customWidth="1"/>
+    <col min="6" max="256" width="7.625" style="122" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.95" customHeight="1">
-      <c r="A1" s="91"/>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="93"/>
+      <c r="A1" s="110"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="112"/>
     </row>
     <row r="2" ht="18.95" customHeight="1">
-      <c r="A2" s="94"/>
-      <c r="B2" t="s" s="95">
+      <c r="A2" s="113"/>
+      <c r="B2" t="s" s="114">
         <v>141</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="98"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="117"/>
     </row>
     <row r="3" ht="18.95" customHeight="1">
-      <c r="A3" s="94"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="98"/>
+      <c r="A3" s="113"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="117"/>
     </row>
     <row r="4" ht="18.95" customHeight="1">
-      <c r="A4" s="94"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="98"/>
+      <c r="A4" s="113"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="117"/>
     </row>
     <row r="5" ht="18.95" customHeight="1">
-      <c r="A5" s="94"/>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="98"/>
+      <c r="A5" s="113"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="117"/>
     </row>
     <row r="6" ht="18.95" customHeight="1">
-      <c r="A6" s="94"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="98"/>
+      <c r="A6" s="113"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="117"/>
     </row>
     <row r="7" ht="18.95" customHeight="1">
-      <c r="A7" s="94"/>
-      <c r="B7" s="97"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="98"/>
+      <c r="A7" s="113"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="117"/>
     </row>
     <row r="8" ht="18.95" customHeight="1">
-      <c r="A8" s="94"/>
-      <c r="B8" s="97"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="98"/>
+      <c r="A8" s="113"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="117"/>
     </row>
     <row r="9" ht="18.95" customHeight="1">
-      <c r="A9" s="94"/>
-      <c r="B9" s="97"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="98"/>
+      <c r="A9" s="113"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="117"/>
     </row>
     <row r="10" ht="18.95" customHeight="1">
-      <c r="A10" s="99"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="101"/>
+      <c r="A10" s="118"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10719,85 +10638,85 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="104" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="104" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="104" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="104" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="104" customWidth="1"/>
-    <col min="6" max="256" width="8.625" style="104" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="123" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="123" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="123" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="123" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="123" customWidth="1"/>
+    <col min="6" max="256" width="8.625" style="123" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
-      <c r="A1" s="105"/>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
+      <c r="A1" s="124"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
     </row>
     <row r="2" ht="20" customHeight="1">
-      <c r="A2" s="105"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
+      <c r="A2" s="124"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
     </row>
     <row r="3" ht="20" customHeight="1">
-      <c r="A3" s="107"/>
-      <c r="B3" t="s" s="108">
+      <c r="A3" s="126"/>
+      <c r="B3" t="s" s="114">
         <v>141</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="105"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="124"/>
     </row>
     <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="107"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="105"/>
+      <c r="A4" s="126"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="124"/>
     </row>
     <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="107"/>
-      <c r="B5" s="113"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="105"/>
+      <c r="A5" s="126"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="124"/>
     </row>
     <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="105"/>
-      <c r="B6" s="115"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
+      <c r="A6" s="124"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="124"/>
     </row>
     <row r="7" ht="20" customHeight="1">
-      <c r="A7" s="105"/>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
+      <c r="A7" s="124"/>
+      <c r="B7" s="124"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="124"/>
     </row>
     <row r="8" ht="20" customHeight="1">
-      <c r="A8" s="105"/>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
+      <c r="A8" s="124"/>
+      <c r="B8" s="124"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="124"/>
     </row>
     <row r="9" ht="20" customHeight="1">
-      <c r="A9" s="105"/>
-      <c r="B9" s="105"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
+      <c r="A9" s="124"/>
+      <c r="B9" s="124"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="124"/>
     </row>
     <row r="10" ht="20" customHeight="1">
-      <c r="A10" s="105"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
+      <c r="A10" s="124"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10821,85 +10740,85 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="116" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="116" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="116" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="116" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="116" customWidth="1"/>
-    <col min="6" max="256" width="8.625" style="116" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="129" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="129" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="129" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="129" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="129" customWidth="1"/>
+    <col min="6" max="256" width="8.625" style="129" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
-      <c r="A1" s="105"/>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
+      <c r="A1" s="124"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
     </row>
     <row r="2" ht="20" customHeight="1">
-      <c r="A2" s="105"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
+      <c r="A2" s="124"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
     </row>
     <row r="3" ht="20" customHeight="1">
-      <c r="A3" s="107"/>
-      <c r="B3" t="s" s="108">
+      <c r="A3" s="126"/>
+      <c r="B3" t="s" s="114">
         <v>141</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="105"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="124"/>
     </row>
     <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="107"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="105"/>
+      <c r="A4" s="126"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="124"/>
     </row>
     <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="107"/>
-      <c r="B5" s="113"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="105"/>
+      <c r="A5" s="126"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="124"/>
     </row>
     <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="105"/>
-      <c r="B6" s="115"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
+      <c r="A6" s="124"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="124"/>
     </row>
     <row r="7" ht="20" customHeight="1">
-      <c r="A7" s="105"/>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
+      <c r="A7" s="124"/>
+      <c r="B7" s="124"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="124"/>
     </row>
     <row r="8" ht="20" customHeight="1">
-      <c r="A8" s="105"/>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
+      <c r="A8" s="124"/>
+      <c r="B8" s="124"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="124"/>
     </row>
     <row r="9" ht="20" customHeight="1">
-      <c r="A9" s="105"/>
-      <c r="B9" s="105"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
+      <c r="A9" s="124"/>
+      <c r="B9" s="124"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="124"/>
     </row>
     <row r="10" ht="20" customHeight="1">
-      <c r="A10" s="105"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
+      <c r="A10" s="124"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10923,85 +10842,85 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="117" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="117" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="117" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="117" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="117" customWidth="1"/>
-    <col min="6" max="256" width="8.625" style="117" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="130" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="130" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="130" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="130" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="130" customWidth="1"/>
+    <col min="6" max="256" width="8.625" style="130" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
-      <c r="A1" s="105"/>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
+      <c r="A1" s="124"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
     </row>
     <row r="2" ht="20" customHeight="1">
-      <c r="A2" s="105"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
+      <c r="A2" s="124"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
     </row>
     <row r="3" ht="20" customHeight="1">
-      <c r="A3" s="107"/>
-      <c r="B3" t="s" s="108">
+      <c r="A3" s="126"/>
+      <c r="B3" t="s" s="114">
         <v>141</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="105"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="124"/>
     </row>
     <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="107"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="105"/>
+      <c r="A4" s="126"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="124"/>
     </row>
     <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="107"/>
-      <c r="B5" s="113"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="105"/>
+      <c r="A5" s="126"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="124"/>
     </row>
     <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="105"/>
-      <c r="B6" s="115"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
+      <c r="A6" s="124"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="124"/>
     </row>
     <row r="7" ht="20" customHeight="1">
-      <c r="A7" s="105"/>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
+      <c r="A7" s="124"/>
+      <c r="B7" s="124"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="124"/>
     </row>
     <row r="8" ht="20" customHeight="1">
-      <c r="A8" s="105"/>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
+      <c r="A8" s="124"/>
+      <c r="B8" s="124"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="124"/>
     </row>
     <row r="9" ht="20" customHeight="1">
-      <c r="A9" s="105"/>
-      <c r="B9" s="105"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
+      <c r="A9" s="124"/>
+      <c r="B9" s="124"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="124"/>
     </row>
     <row r="10" ht="20" customHeight="1">
-      <c r="A10" s="105"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
+      <c r="A10" s="124"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11025,162 +10944,162 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="118" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="118" customWidth="1"/>
-    <col min="3" max="3" width="7.625" style="118" customWidth="1"/>
-    <col min="4" max="4" width="42.125" style="118" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="118" customWidth="1"/>
-    <col min="6" max="256" width="7.625" style="118" customWidth="1"/>
+    <col min="1" max="1" width="7.625" style="131" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="131" customWidth="1"/>
+    <col min="3" max="3" width="7.625" style="131" customWidth="1"/>
+    <col min="4" max="4" width="42.125" style="131" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="131" customWidth="1"/>
+    <col min="6" max="256" width="7.625" style="131" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.95" customHeight="1">
-      <c r="A1" s="91"/>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="93"/>
+      <c r="A1" s="110"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="112"/>
     </row>
     <row r="2" ht="18.95" customHeight="1">
-      <c r="A2" s="94"/>
-      <c r="B2" t="s" s="95">
+      <c r="A2" s="113"/>
+      <c r="B2" t="s" s="114">
         <v>141</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="98"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="117"/>
     </row>
     <row r="3" ht="18.95" customHeight="1">
-      <c r="A3" s="94"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="98"/>
+      <c r="A3" s="113"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="117"/>
     </row>
     <row r="4" ht="18.95" customHeight="1">
-      <c r="A4" s="94"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="98"/>
+      <c r="A4" s="113"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="117"/>
     </row>
     <row r="5" ht="18.95" customHeight="1">
-      <c r="A5" s="94"/>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="98"/>
+      <c r="A5" s="113"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="117"/>
     </row>
     <row r="6" ht="18.95" customHeight="1">
-      <c r="A6" s="94"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="98"/>
+      <c r="A6" s="113"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="117"/>
     </row>
     <row r="7" ht="18.95" customHeight="1">
-      <c r="A7" s="94"/>
-      <c r="B7" s="97"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="98"/>
+      <c r="A7" s="113"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="117"/>
     </row>
     <row r="8" ht="18.95" customHeight="1">
-      <c r="A8" s="94"/>
-      <c r="B8" s="97"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="98"/>
+      <c r="A8" s="113"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="117"/>
     </row>
     <row r="9" ht="18.95" customHeight="1">
-      <c r="A9" s="94"/>
-      <c r="B9" s="97"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="98"/>
+      <c r="A9" s="113"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="117"/>
     </row>
     <row r="10" ht="18.95" customHeight="1">
-      <c r="A10" s="94"/>
-      <c r="B10" s="97"/>
-      <c r="C10" s="97"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="98"/>
+      <c r="A10" s="113"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="117"/>
     </row>
     <row r="11" ht="20" customHeight="1">
-      <c r="A11" s="119"/>
+      <c r="A11" s="132"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="13"/>
     </row>
     <row r="12" ht="16.5" customHeight="1">
-      <c r="A12" s="119"/>
+      <c r="A12" s="132"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
-      <c r="D12" t="s" s="120">
+      <c r="D12" t="s" s="133">
         <v>142</v>
       </c>
       <c r="E12" s="13"/>
     </row>
     <row r="13" ht="16.5" customHeight="1">
-      <c r="A13" s="119"/>
+      <c r="A13" s="132"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
-      <c r="D13" t="s" s="120">
+      <c r="D13" t="s" s="133">
         <v>143</v>
       </c>
       <c r="E13" s="13"/>
     </row>
     <row r="14" ht="16.5" customHeight="1">
-      <c r="A14" s="119"/>
+      <c r="A14" s="132"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
-      <c r="D14" t="s" s="120">
+      <c r="D14" t="s" s="133">
         <v>144</v>
       </c>
       <c r="E14" s="13"/>
     </row>
     <row r="15" ht="16.5" customHeight="1">
-      <c r="A15" s="119"/>
+      <c r="A15" s="132"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
-      <c r="D15" t="s" s="120">
+      <c r="D15" t="s" s="133">
         <v>145</v>
       </c>
       <c r="E15" s="13"/>
     </row>
     <row r="16" ht="16.5" customHeight="1">
-      <c r="A16" s="119"/>
+      <c r="A16" s="132"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
-      <c r="D16" t="s" s="120">
+      <c r="D16" t="s" s="133">
         <v>146</v>
       </c>
       <c r="E16" s="13"/>
     </row>
     <row r="17" ht="20" customHeight="1">
-      <c r="A17" s="119"/>
+      <c r="A17" s="132"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="13"/>
     </row>
     <row r="18" ht="16.5" customHeight="1">
-      <c r="A18" s="119"/>
+      <c r="A18" s="132"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
-      <c r="D18" t="s" s="120">
+      <c r="D18" t="s" s="133">
         <v>147</v>
       </c>
       <c r="E18" s="13"/>
     </row>
     <row r="19" ht="16.5" customHeight="1">
-      <c r="A19" s="121"/>
-      <c r="B19" s="122"/>
-      <c r="C19" s="122"/>
-      <c r="D19" t="s" s="123">
+      <c r="A19" s="134"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="88"/>
+      <c r="D19" t="s" s="135">
         <v>148</v>
       </c>
-      <c r="E19" s="124"/>
+      <c r="E19" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11204,99 +11123,99 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="125" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="125" customWidth="1"/>
-    <col min="3" max="3" width="7.625" style="125" customWidth="1"/>
-    <col min="4" max="4" width="42.125" style="125" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="125" customWidth="1"/>
-    <col min="6" max="256" width="7.625" style="125" customWidth="1"/>
+    <col min="1" max="1" width="7.625" style="136" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="136" customWidth="1"/>
+    <col min="3" max="3" width="7.625" style="136" customWidth="1"/>
+    <col min="4" max="4" width="42.125" style="136" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="136" customWidth="1"/>
+    <col min="6" max="256" width="7.625" style="136" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.95" customHeight="1">
-      <c r="A1" s="91"/>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="93"/>
+      <c r="A1" s="110"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="112"/>
     </row>
     <row r="2" ht="18.95" customHeight="1">
-      <c r="A2" s="94"/>
-      <c r="B2" t="s" s="95">
+      <c r="A2" s="113"/>
+      <c r="B2" t="s" s="114">
         <v>141</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="98"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="117"/>
     </row>
     <row r="3" ht="18.95" customHeight="1">
-      <c r="A3" s="94"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="98"/>
+      <c r="A3" s="113"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="117"/>
     </row>
     <row r="4" ht="18.95" customHeight="1">
-      <c r="A4" s="94"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="98"/>
+      <c r="A4" s="113"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="117"/>
     </row>
     <row r="5" ht="18.95" customHeight="1">
-      <c r="A5" s="94"/>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="98"/>
+      <c r="A5" s="113"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="117"/>
     </row>
     <row r="6" ht="18.95" customHeight="1">
-      <c r="A6" s="94"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="98"/>
+      <c r="A6" s="113"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="117"/>
     </row>
     <row r="7" ht="18.95" customHeight="1">
-      <c r="A7" s="94"/>
-      <c r="B7" s="97"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="98"/>
+      <c r="A7" s="113"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="117"/>
     </row>
     <row r="8" ht="18.95" customHeight="1">
-      <c r="A8" s="94"/>
-      <c r="B8" s="97"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="98"/>
+      <c r="A8" s="113"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="117"/>
     </row>
     <row r="9" ht="18.95" customHeight="1">
-      <c r="A9" s="94"/>
-      <c r="B9" s="97"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="98"/>
+      <c r="A9" s="113"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="117"/>
     </row>
     <row r="10" ht="18.95" customHeight="1">
-      <c r="A10" s="94"/>
-      <c r="B10" s="97"/>
-      <c r="C10" s="97"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="98"/>
+      <c r="A10" s="113"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="117"/>
     </row>
     <row r="11" ht="20" customHeight="1">
-      <c r="A11" s="119"/>
+      <c r="A11" s="132"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="13"/>
     </row>
     <row r="12" ht="16.5" customHeight="1">
-      <c r="A12" s="121"/>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="124"/>
+      <c r="A12" s="134"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11320,100 +11239,100 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="71" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="71" customWidth="1"/>
-    <col min="3" max="3" width="7.625" style="71" customWidth="1"/>
-    <col min="4" max="4" width="7.625" style="71" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="71" customWidth="1"/>
-    <col min="6" max="6" width="7.625" style="71" customWidth="1"/>
-    <col min="7" max="256" width="7.625" style="71" customWidth="1"/>
+    <col min="1" max="1" width="7.625" style="90" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="90" customWidth="1"/>
+    <col min="3" max="3" width="7.625" style="90" customWidth="1"/>
+    <col min="4" max="4" width="7.625" style="90" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="90" customWidth="1"/>
+    <col min="6" max="6" width="7.625" style="90" customWidth="1"/>
+    <col min="7" max="256" width="7.625" style="90" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.95" customHeight="1">
-      <c r="A1" s="72"/>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
+      <c r="A1" s="91"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
     </row>
     <row r="2" ht="18.95" customHeight="1">
-      <c r="A2" s="74"/>
-      <c r="B2" t="s" s="75">
+      <c r="A2" s="93"/>
+      <c r="B2" t="s" s="94">
         <v>135</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
     </row>
     <row r="3" ht="18.95" customHeight="1">
-      <c r="A3" s="74"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
+      <c r="A3" s="93"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
     </row>
     <row r="4" ht="18.95" customHeight="1">
-      <c r="A4" s="74"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
     </row>
     <row r="5" ht="18.95" customHeight="1">
-      <c r="A5" s="72"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="72"/>
-      <c r="E5" t="s" s="79">
+      <c r="A5" s="91"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="91"/>
+      <c r="E5" t="s" s="98">
         <v>136</v>
       </c>
-      <c r="F5" t="s" s="80">
+      <c r="F5" t="s" s="99">
         <v>137</v>
       </c>
     </row>
     <row r="6" ht="18.95" customHeight="1">
-      <c r="A6" s="72"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
+      <c r="A6" s="91"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
     </row>
     <row r="7" ht="18.95" customHeight="1">
-      <c r="A7" s="72"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
+      <c r="A7" s="91"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
     </row>
     <row r="8" ht="18.95" customHeight="1">
-      <c r="A8" s="72"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
+      <c r="A8" s="91"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
     </row>
     <row r="9" ht="18.95" customHeight="1">
-      <c r="A9" s="72"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
+      <c r="A9" s="91"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
     </row>
     <row r="10" ht="18.95" customHeight="1">
-      <c r="A10" s="72"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11440,99 +11359,99 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="127" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="127" customWidth="1"/>
-    <col min="3" max="3" width="7.625" style="127" customWidth="1"/>
-    <col min="4" max="4" width="42.125" style="127" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="127" customWidth="1"/>
-    <col min="6" max="256" width="7.625" style="127" customWidth="1"/>
+    <col min="1" max="1" width="7.625" style="138" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="138" customWidth="1"/>
+    <col min="3" max="3" width="7.625" style="138" customWidth="1"/>
+    <col min="4" max="4" width="42.125" style="138" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="138" customWidth="1"/>
+    <col min="6" max="256" width="7.625" style="138" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.95" customHeight="1">
-      <c r="A1" s="91"/>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="93"/>
+      <c r="A1" s="110"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="112"/>
     </row>
     <row r="2" ht="18.95" customHeight="1">
-      <c r="A2" s="94"/>
-      <c r="B2" t="s" s="95">
+      <c r="A2" s="113"/>
+      <c r="B2" t="s" s="114">
         <v>141</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="98"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="117"/>
     </row>
     <row r="3" ht="18.95" customHeight="1">
-      <c r="A3" s="94"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="98"/>
+      <c r="A3" s="113"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="117"/>
     </row>
     <row r="4" ht="18.95" customHeight="1">
-      <c r="A4" s="94"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="98"/>
+      <c r="A4" s="113"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="117"/>
     </row>
     <row r="5" ht="18.95" customHeight="1">
-      <c r="A5" s="94"/>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="98"/>
+      <c r="A5" s="113"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="117"/>
     </row>
     <row r="6" ht="18.95" customHeight="1">
-      <c r="A6" s="94"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="98"/>
+      <c r="A6" s="113"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="117"/>
     </row>
     <row r="7" ht="18.95" customHeight="1">
-      <c r="A7" s="94"/>
-      <c r="B7" s="97"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="98"/>
+      <c r="A7" s="113"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="117"/>
     </row>
     <row r="8" ht="18.95" customHeight="1">
-      <c r="A8" s="94"/>
-      <c r="B8" s="97"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="98"/>
+      <c r="A8" s="113"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="117"/>
     </row>
     <row r="9" ht="18.95" customHeight="1">
-      <c r="A9" s="94"/>
-      <c r="B9" s="97"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="98"/>
+      <c r="A9" s="113"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="117"/>
     </row>
     <row r="10" ht="18.95" customHeight="1">
-      <c r="A10" s="94"/>
-      <c r="B10" s="97"/>
-      <c r="C10" s="97"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="98"/>
+      <c r="A10" s="113"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="117"/>
     </row>
     <row r="11" ht="20" customHeight="1">
-      <c r="A11" s="119"/>
+      <c r="A11" s="132"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="13"/>
     </row>
     <row r="12" ht="16.5" customHeight="1">
-      <c r="A12" s="121"/>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="124"/>
+      <c r="A12" s="134"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11556,85 +11475,85 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="81" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="81" customWidth="1"/>
-    <col min="3" max="3" width="7.625" style="81" customWidth="1"/>
-    <col min="4" max="4" width="7.625" style="81" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="81" customWidth="1"/>
-    <col min="6" max="256" width="7.625" style="81" customWidth="1"/>
+    <col min="1" max="1" width="7.625" style="100" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="100" customWidth="1"/>
+    <col min="3" max="3" width="7.625" style="100" customWidth="1"/>
+    <col min="4" max="4" width="7.625" style="100" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="100" customWidth="1"/>
+    <col min="6" max="256" width="7.625" style="100" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.95" customHeight="1">
-      <c r="A1" s="72"/>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
+      <c r="A1" s="91"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
     </row>
     <row r="2" ht="18.95" customHeight="1">
-      <c r="A2" s="74"/>
-      <c r="B2" t="s" s="75">
+      <c r="A2" s="93"/>
+      <c r="B2" t="s" s="94">
         <v>135</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="72"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="91"/>
     </row>
     <row r="3" ht="18.95" customHeight="1">
-      <c r="A3" s="74"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="72"/>
+      <c r="A3" s="93"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="91"/>
     </row>
     <row r="4" ht="18.95" customHeight="1">
-      <c r="A4" s="74"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="72"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="91"/>
     </row>
     <row r="5" ht="18.95" customHeight="1">
-      <c r="A5" s="72"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
+      <c r="A5" s="91"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
     </row>
     <row r="6" ht="18.95" customHeight="1">
-      <c r="A6" s="72"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
+      <c r="A6" s="91"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
     </row>
     <row r="7" ht="18.95" customHeight="1">
-      <c r="A7" s="72"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
+      <c r="A7" s="91"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
     </row>
     <row r="8" ht="18.95" customHeight="1">
-      <c r="A8" s="72"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
+      <c r="A8" s="91"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
     </row>
     <row r="9" ht="18.95" customHeight="1">
-      <c r="A9" s="72"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
+      <c r="A9" s="91"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
     </row>
     <row r="10" ht="18.95" customHeight="1">
-      <c r="A10" s="72"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11658,85 +11577,85 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="82" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="82" customWidth="1"/>
-    <col min="3" max="3" width="7.625" style="82" customWidth="1"/>
-    <col min="4" max="4" width="7.625" style="82" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="82" customWidth="1"/>
-    <col min="6" max="256" width="7.625" style="82" customWidth="1"/>
+    <col min="1" max="1" width="7.625" style="101" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="101" customWidth="1"/>
+    <col min="3" max="3" width="7.625" style="101" customWidth="1"/>
+    <col min="4" max="4" width="7.625" style="101" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="101" customWidth="1"/>
+    <col min="6" max="256" width="7.625" style="101" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.95" customHeight="1">
-      <c r="A1" s="72"/>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
+      <c r="A1" s="91"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
     </row>
     <row r="2" ht="18.95" customHeight="1">
-      <c r="A2" s="74"/>
-      <c r="B2" t="s" s="75">
+      <c r="A2" s="93"/>
+      <c r="B2" t="s" s="94">
         <v>135</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="72"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="91"/>
     </row>
     <row r="3" ht="18.95" customHeight="1">
-      <c r="A3" s="74"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="72"/>
+      <c r="A3" s="93"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="91"/>
     </row>
     <row r="4" ht="18.95" customHeight="1">
-      <c r="A4" s="74"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="72"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="91"/>
     </row>
     <row r="5" ht="18.95" customHeight="1">
-      <c r="A5" s="72"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
+      <c r="A5" s="91"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
     </row>
     <row r="6" ht="18.95" customHeight="1">
-      <c r="A6" s="72"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
+      <c r="A6" s="91"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
     </row>
     <row r="7" ht="18.95" customHeight="1">
-      <c r="A7" s="72"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
+      <c r="A7" s="91"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
     </row>
     <row r="8" ht="18.95" customHeight="1">
-      <c r="A8" s="72"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
+      <c r="A8" s="91"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
     </row>
     <row r="9" ht="18.95" customHeight="1">
-      <c r="A9" s="72"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
+      <c r="A9" s="91"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
     </row>
     <row r="10" ht="18.95" customHeight="1">
-      <c r="A10" s="72"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11760,85 +11679,85 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="83" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="83" customWidth="1"/>
-    <col min="3" max="3" width="7.625" style="83" customWidth="1"/>
-    <col min="4" max="4" width="7.625" style="83" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="83" customWidth="1"/>
-    <col min="6" max="256" width="7.625" style="83" customWidth="1"/>
+    <col min="1" max="1" width="7.625" style="102" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="102" customWidth="1"/>
+    <col min="3" max="3" width="7.625" style="102" customWidth="1"/>
+    <col min="4" max="4" width="7.625" style="102" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="102" customWidth="1"/>
+    <col min="6" max="256" width="7.625" style="102" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.95" customHeight="1">
-      <c r="A1" s="72"/>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
+      <c r="A1" s="91"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
     </row>
     <row r="2" ht="18.95" customHeight="1">
-      <c r="A2" s="74"/>
-      <c r="B2" t="s" s="75">
+      <c r="A2" s="93"/>
+      <c r="B2" t="s" s="94">
         <v>135</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="72"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="91"/>
     </row>
     <row r="3" ht="18.95" customHeight="1">
-      <c r="A3" s="74"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="72"/>
+      <c r="A3" s="93"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="91"/>
     </row>
     <row r="4" ht="18.95" customHeight="1">
-      <c r="A4" s="74"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="72"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="91"/>
     </row>
     <row r="5" ht="18.95" customHeight="1">
-      <c r="A5" s="72"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
+      <c r="A5" s="91"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
     </row>
     <row r="6" ht="18.95" customHeight="1">
-      <c r="A6" s="72"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
+      <c r="A6" s="91"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
     </row>
     <row r="7" ht="18.95" customHeight="1">
-      <c r="A7" s="72"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
+      <c r="A7" s="91"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
     </row>
     <row r="8" ht="18.95" customHeight="1">
-      <c r="A8" s="72"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
+      <c r="A8" s="91"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
     </row>
     <row r="9" ht="18.95" customHeight="1">
-      <c r="A9" s="72"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
+      <c r="A9" s="91"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
     </row>
     <row r="10" ht="18.95" customHeight="1">
-      <c r="A10" s="72"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11862,85 +11781,85 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="84" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="84" customWidth="1"/>
-    <col min="3" max="3" width="7.625" style="84" customWidth="1"/>
-    <col min="4" max="4" width="7.625" style="84" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="84" customWidth="1"/>
-    <col min="6" max="256" width="7.625" style="84" customWidth="1"/>
+    <col min="1" max="1" width="7.625" style="103" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="103" customWidth="1"/>
+    <col min="3" max="3" width="7.625" style="103" customWidth="1"/>
+    <col min="4" max="4" width="7.625" style="103" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="103" customWidth="1"/>
+    <col min="6" max="256" width="7.625" style="103" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.95" customHeight="1">
-      <c r="A1" s="72"/>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
+      <c r="A1" s="91"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
     </row>
     <row r="2" ht="18.95" customHeight="1">
-      <c r="A2" s="74"/>
-      <c r="B2" t="s" s="75">
+      <c r="A2" s="93"/>
+      <c r="B2" t="s" s="94">
         <v>135</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="72"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="91"/>
     </row>
     <row r="3" ht="18.95" customHeight="1">
-      <c r="A3" s="74"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="72"/>
+      <c r="A3" s="93"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="91"/>
     </row>
     <row r="4" ht="18.95" customHeight="1">
-      <c r="A4" s="74"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="72"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="91"/>
     </row>
     <row r="5" ht="18.95" customHeight="1">
-      <c r="A5" s="72"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
+      <c r="A5" s="91"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
     </row>
     <row r="6" ht="18.95" customHeight="1">
-      <c r="A6" s="72"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
+      <c r="A6" s="91"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
     </row>
     <row r="7" ht="18.95" customHeight="1">
-      <c r="A7" s="72"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
+      <c r="A7" s="91"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
     </row>
     <row r="8" ht="18.95" customHeight="1">
-      <c r="A8" s="72"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
+      <c r="A8" s="91"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
     </row>
     <row r="9" ht="18.95" customHeight="1">
-      <c r="A9" s="72"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
+      <c r="A9" s="91"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
     </row>
     <row r="10" ht="18.95" customHeight="1">
-      <c r="A10" s="72"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11964,409 +11883,409 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="85" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="85" customWidth="1"/>
-    <col min="3" max="3" width="7.625" style="85" customWidth="1"/>
-    <col min="4" max="4" width="7.625" style="85" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="85" customWidth="1"/>
-    <col min="6" max="256" width="7.625" style="85" customWidth="1"/>
+    <col min="1" max="1" width="7.625" style="104" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="104" customWidth="1"/>
+    <col min="3" max="3" width="7.625" style="104" customWidth="1"/>
+    <col min="4" max="4" width="7.625" style="104" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="104" customWidth="1"/>
+    <col min="6" max="256" width="7.625" style="104" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.95" customHeight="1">
-      <c r="A1" s="72"/>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
+      <c r="A1" s="91"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
     </row>
     <row r="2" ht="18.95" customHeight="1">
-      <c r="A2" s="74"/>
-      <c r="B2" t="s" s="75">
+      <c r="A2" s="93"/>
+      <c r="B2" t="s" s="94">
         <v>135</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="72"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="91"/>
     </row>
     <row r="3" ht="18.95" customHeight="1">
-      <c r="A3" s="74"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77"/>
-      <c r="E3" t="s" s="79">
+      <c r="A3" s="93"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="96"/>
+      <c r="E3" t="s" s="98">
         <v>138</v>
       </c>
     </row>
     <row r="4" ht="18.95" customHeight="1">
-      <c r="A4" s="74"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="72"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="91"/>
     </row>
     <row r="5" ht="18.95" customHeight="1">
-      <c r="A5" s="72"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
+      <c r="A5" s="91"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
     </row>
     <row r="6" ht="18.95" customHeight="1">
-      <c r="A6" s="72"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
+      <c r="A6" s="91"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
     </row>
     <row r="7" ht="18.95" customHeight="1">
-      <c r="A7" s="72"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
+      <c r="A7" s="91"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
     </row>
     <row r="8" ht="18.95" customHeight="1">
-      <c r="A8" s="72"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
+      <c r="A8" s="91"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
     </row>
     <row r="9" ht="18.95" customHeight="1">
-      <c r="A9" s="72"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
+      <c r="A9" s="91"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
     </row>
     <row r="10" ht="18.95" customHeight="1">
-      <c r="A10" s="72"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
     </row>
     <row r="11" ht="18.95" customHeight="1">
-      <c r="A11" s="72"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
+      <c r="A11" s="91"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
     </row>
     <row r="12" ht="18.95" customHeight="1">
-      <c r="A12" s="72"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
+      <c r="A12" s="91"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
     </row>
     <row r="13" ht="18.95" customHeight="1">
-      <c r="A13" s="72"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
+      <c r="A13" s="91"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
     </row>
     <row r="14" ht="18.95" customHeight="1">
-      <c r="A14" s="72"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
+      <c r="A14" s="91"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
     </row>
     <row r="15" ht="18.95" customHeight="1">
-      <c r="A15" s="72"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
+      <c r="A15" s="91"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
     </row>
     <row r="16" ht="18.95" customHeight="1">
-      <c r="A16" s="72"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
+      <c r="A16" s="91"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
     </row>
     <row r="17" ht="18.95" customHeight="1">
-      <c r="A17" s="72"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
+      <c r="A17" s="91"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
     </row>
     <row r="18" ht="18.95" customHeight="1">
-      <c r="A18" s="72"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
+      <c r="A18" s="91"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
     </row>
     <row r="19" ht="18.95" customHeight="1">
-      <c r="A19" s="72"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
+      <c r="A19" s="91"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="91"/>
     </row>
     <row r="20" ht="18.95" customHeight="1">
-      <c r="A20" s="72"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
+      <c r="A20" s="91"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="91"/>
     </row>
     <row r="21" ht="18.95" customHeight="1">
-      <c r="A21" s="72"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
+      <c r="A21" s="91"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
     </row>
     <row r="22" ht="18.95" customHeight="1">
-      <c r="A22" s="72"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
+      <c r="A22" s="91"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
     </row>
     <row r="23" ht="18.95" customHeight="1">
-      <c r="A23" s="72"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
+      <c r="A23" s="91"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="91"/>
     </row>
     <row r="24" ht="18.95" customHeight="1">
-      <c r="A24" s="72"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
+      <c r="A24" s="91"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="91"/>
     </row>
     <row r="25" ht="18.95" customHeight="1">
-      <c r="A25" s="72"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
+      <c r="A25" s="91"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91"/>
     </row>
     <row r="26" ht="18.95" customHeight="1">
-      <c r="A26" s="72"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
+      <c r="A26" s="91"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="91"/>
     </row>
     <row r="27" ht="18.95" customHeight="1">
-      <c r="A27" s="72"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
+      <c r="A27" s="91"/>
+      <c r="B27" s="91"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="91"/>
     </row>
     <row r="28" ht="18.95" customHeight="1">
-      <c r="A28" s="72"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
+      <c r="A28" s="91"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="91"/>
     </row>
     <row r="29" ht="18.95" customHeight="1">
-      <c r="A29" s="72"/>
-      <c r="B29" s="72"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
+      <c r="A29" s="91"/>
+      <c r="B29" s="91"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="91"/>
     </row>
     <row r="30" ht="18.95" customHeight="1">
-      <c r="A30" s="72"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
+      <c r="A30" s="91"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="91"/>
     </row>
     <row r="31" ht="18.95" customHeight="1">
-      <c r="A31" s="72"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
+      <c r="A31" s="91"/>
+      <c r="B31" s="91"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="91"/>
+      <c r="E31" s="91"/>
     </row>
     <row r="32" ht="18.95" customHeight="1">
-      <c r="A32" s="72"/>
-      <c r="B32" s="72"/>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
+      <c r="A32" s="91"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="91"/>
     </row>
     <row r="33" ht="18.95" customHeight="1">
-      <c r="A33" s="72"/>
-      <c r="B33" s="72"/>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
+      <c r="A33" s="91"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="91"/>
     </row>
     <row r="34" ht="18.95" customHeight="1">
-      <c r="A34" s="72"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
+      <c r="A34" s="91"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="91"/>
+      <c r="E34" s="91"/>
     </row>
     <row r="35" ht="18.95" customHeight="1">
-      <c r="A35" s="72"/>
-      <c r="B35" s="72"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
+      <c r="A35" s="91"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="91"/>
     </row>
     <row r="36" ht="18.95" customHeight="1">
-      <c r="A36" s="72"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
+      <c r="A36" s="91"/>
+      <c r="B36" s="91"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="91"/>
+      <c r="E36" s="91"/>
     </row>
     <row r="37" ht="18.95" customHeight="1">
-      <c r="A37" s="72"/>
-      <c r="B37" s="72"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
+      <c r="A37" s="91"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="91"/>
+      <c r="E37" s="91"/>
     </row>
     <row r="38" ht="18.95" customHeight="1">
-      <c r="A38" s="72"/>
-      <c r="B38" s="72"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="72"/>
+      <c r="A38" s="91"/>
+      <c r="B38" s="91"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="91"/>
     </row>
     <row r="39" ht="18.95" customHeight="1">
-      <c r="A39" s="72"/>
-      <c r="B39" s="72"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="72"/>
+      <c r="A39" s="91"/>
+      <c r="B39" s="91"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="91"/>
+      <c r="E39" s="91"/>
     </row>
     <row r="40" ht="18.95" customHeight="1">
-      <c r="A40" s="72"/>
-      <c r="B40" s="72"/>
-      <c r="C40" s="72"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="72"/>
+      <c r="A40" s="91"/>
+      <c r="B40" s="91"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="91"/>
+      <c r="E40" s="91"/>
     </row>
     <row r="41" ht="18.95" customHeight="1">
-      <c r="A41" s="72"/>
-      <c r="B41" s="72"/>
-      <c r="C41" s="72"/>
-      <c r="D41" s="72"/>
-      <c r="E41" s="72"/>
+      <c r="A41" s="91"/>
+      <c r="B41" s="91"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="91"/>
+      <c r="E41" s="91"/>
     </row>
     <row r="42" ht="18.95" customHeight="1">
-      <c r="A42" s="72"/>
-      <c r="B42" s="72"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="72"/>
+      <c r="A42" s="91"/>
+      <c r="B42" s="91"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="91"/>
+      <c r="E42" s="91"/>
     </row>
     <row r="43" ht="18.95" customHeight="1">
-      <c r="A43" s="72"/>
-      <c r="B43" s="72"/>
-      <c r="C43" s="72"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="72"/>
+      <c r="A43" s="91"/>
+      <c r="B43" s="91"/>
+      <c r="C43" s="91"/>
+      <c r="D43" s="91"/>
+      <c r="E43" s="91"/>
     </row>
     <row r="44" ht="18.95" customHeight="1">
-      <c r="A44" s="72"/>
-      <c r="B44" s="72"/>
-      <c r="C44" s="72"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="72"/>
+      <c r="A44" s="91"/>
+      <c r="B44" s="91"/>
+      <c r="C44" s="91"/>
+      <c r="D44" s="91"/>
+      <c r="E44" s="91"/>
     </row>
     <row r="45" ht="18.95" customHeight="1">
-      <c r="A45" s="72"/>
-      <c r="B45" s="72"/>
-      <c r="C45" s="72"/>
-      <c r="D45" s="72"/>
-      <c r="E45" s="72"/>
+      <c r="A45" s="91"/>
+      <c r="B45" s="91"/>
+      <c r="C45" s="91"/>
+      <c r="D45" s="91"/>
+      <c r="E45" s="91"/>
     </row>
     <row r="46" ht="18.95" customHeight="1">
-      <c r="A46" s="72"/>
-      <c r="B46" s="72"/>
-      <c r="C46" s="72"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="72"/>
+      <c r="A46" s="91"/>
+      <c r="B46" s="91"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="91"/>
+      <c r="E46" s="91"/>
     </row>
     <row r="47" ht="18.95" customHeight="1">
-      <c r="A47" s="72"/>
-      <c r="B47" s="72"/>
-      <c r="C47" s="72"/>
-      <c r="D47" s="72"/>
-      <c r="E47" s="72"/>
+      <c r="A47" s="91"/>
+      <c r="B47" s="91"/>
+      <c r="C47" s="91"/>
+      <c r="D47" s="91"/>
+      <c r="E47" s="91"/>
     </row>
     <row r="48" ht="18.95" customHeight="1">
-      <c r="A48" s="72"/>
-      <c r="B48" s="72"/>
-      <c r="C48" s="72"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="72"/>
+      <c r="A48" s="91"/>
+      <c r="B48" s="91"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="91"/>
+      <c r="E48" s="91"/>
     </row>
     <row r="49" ht="18.95" customHeight="1">
-      <c r="A49" s="72"/>
-      <c r="B49" s="72"/>
-      <c r="C49" s="72"/>
-      <c r="D49" s="72"/>
-      <c r="E49" s="72"/>
+      <c r="A49" s="91"/>
+      <c r="B49" s="91"/>
+      <c r="C49" s="91"/>
+      <c r="D49" s="91"/>
+      <c r="E49" s="91"/>
     </row>
     <row r="50" ht="18.95" customHeight="1">
-      <c r="A50" s="72"/>
-      <c r="B50" s="72"/>
-      <c r="C50" s="72"/>
-      <c r="D50" s="72"/>
-      <c r="E50" s="72"/>
+      <c r="A50" s="91"/>
+      <c r="B50" s="91"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="91"/>
+      <c r="E50" s="91"/>
     </row>
     <row r="51" ht="18.95" customHeight="1">
-      <c r="A51" s="72"/>
-      <c r="B51" s="72"/>
-      <c r="C51" s="72"/>
-      <c r="D51" s="72"/>
-      <c r="E51" s="72"/>
+      <c r="A51" s="91"/>
+      <c r="B51" s="91"/>
+      <c r="C51" s="91"/>
+      <c r="D51" s="91"/>
+      <c r="E51" s="91"/>
     </row>
     <row r="52" ht="18.95" customHeight="1">
-      <c r="A52" s="72"/>
-      <c r="B52" s="72"/>
-      <c r="C52" s="72"/>
-      <c r="D52" s="72"/>
-      <c r="E52" s="72"/>
+      <c r="A52" s="91"/>
+      <c r="B52" s="91"/>
+      <c r="C52" s="91"/>
+      <c r="D52" s="91"/>
+      <c r="E52" s="91"/>
     </row>
     <row r="53" ht="18.95" customHeight="1">
-      <c r="A53" s="72"/>
-      <c r="B53" s="72"/>
-      <c r="C53" s="72"/>
-      <c r="D53" s="72"/>
-      <c r="E53" s="72"/>
+      <c r="A53" s="91"/>
+      <c r="B53" s="91"/>
+      <c r="C53" s="91"/>
+      <c r="D53" s="91"/>
+      <c r="E53" s="91"/>
     </row>
     <row r="54" ht="18.95" customHeight="1">
-      <c r="A54" s="72"/>
-      <c r="B54" s="72"/>
-      <c r="C54" s="72"/>
-      <c r="D54" s="72"/>
-      <c r="E54" s="72"/>
+      <c r="A54" s="91"/>
+      <c r="B54" s="91"/>
+      <c r="C54" s="91"/>
+      <c r="D54" s="91"/>
+      <c r="E54" s="91"/>
     </row>
     <row r="55" ht="18.95" customHeight="1">
-      <c r="A55" s="72"/>
-      <c r="B55" s="72"/>
-      <c r="C55" s="72"/>
-      <c r="D55" s="72"/>
-      <c r="E55" s="72"/>
+      <c r="A55" s="91"/>
+      <c r="B55" s="91"/>
+      <c r="C55" s="91"/>
+      <c r="D55" s="91"/>
+      <c r="E55" s="91"/>
     </row>
     <row r="56" ht="18.95" customHeight="1">
-      <c r="A56" s="72"/>
-      <c r="B56" s="72"/>
-      <c r="C56" s="72"/>
-      <c r="D56" s="72"/>
-      <c r="E56" t="s" s="79">
+      <c r="A56" s="91"/>
+      <c r="B56" s="91"/>
+      <c r="C56" s="91"/>
+      <c r="D56" s="91"/>
+      <c r="E56" t="s" s="98">
         <v>139</v>
       </c>
     </row>
@@ -12392,85 +12311,85 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="86" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="86" customWidth="1"/>
-    <col min="3" max="3" width="7.625" style="86" customWidth="1"/>
-    <col min="4" max="4" width="7.625" style="86" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="86" customWidth="1"/>
-    <col min="6" max="256" width="7.625" style="86" customWidth="1"/>
+    <col min="1" max="1" width="7.625" style="105" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="105" customWidth="1"/>
+    <col min="3" max="3" width="7.625" style="105" customWidth="1"/>
+    <col min="4" max="4" width="7.625" style="105" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="105" customWidth="1"/>
+    <col min="6" max="256" width="7.625" style="105" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.95" customHeight="1">
-      <c r="A1" s="72"/>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
+      <c r="A1" s="91"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
     </row>
     <row r="2" ht="18.95" customHeight="1">
-      <c r="A2" s="74"/>
-      <c r="B2" t="s" s="75">
+      <c r="A2" s="93"/>
+      <c r="B2" t="s" s="94">
         <v>135</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="72"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="91"/>
     </row>
     <row r="3" ht="18.95" customHeight="1">
-      <c r="A3" s="74"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="72"/>
+      <c r="A3" s="93"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="91"/>
     </row>
     <row r="4" ht="18.95" customHeight="1">
-      <c r="A4" s="74"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="72"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="91"/>
     </row>
     <row r="5" ht="18.95" customHeight="1">
-      <c r="A5" s="72"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
+      <c r="A5" s="91"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
     </row>
     <row r="6" ht="18.95" customHeight="1">
-      <c r="A6" s="72"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
+      <c r="A6" s="91"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
     </row>
     <row r="7" ht="18.95" customHeight="1">
-      <c r="A7" s="72"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
+      <c r="A7" s="91"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
     </row>
     <row r="8" ht="18.95" customHeight="1">
-      <c r="A8" s="72"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
+      <c r="A8" s="91"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
     </row>
     <row r="9" ht="18.95" customHeight="1">
-      <c r="A9" s="72"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
+      <c r="A9" s="91"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
     </row>
     <row r="10" ht="18.95" customHeight="1">
-      <c r="A10" s="72"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12494,100 +12413,100 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="87" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="87" customWidth="1"/>
-    <col min="3" max="3" width="7.625" style="87" customWidth="1"/>
-    <col min="4" max="4" width="7.625" style="87" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="87" customWidth="1"/>
-    <col min="6" max="6" width="7.625" style="87" customWidth="1"/>
-    <col min="7" max="256" width="7.625" style="87" customWidth="1"/>
+    <col min="1" max="1" width="7.625" style="106" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="106" customWidth="1"/>
+    <col min="3" max="3" width="7.625" style="106" customWidth="1"/>
+    <col min="4" max="4" width="7.625" style="106" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="106" customWidth="1"/>
+    <col min="6" max="6" width="7.625" style="106" customWidth="1"/>
+    <col min="7" max="256" width="7.625" style="106" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.95" customHeight="1">
-      <c r="A1" s="72"/>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
+      <c r="A1" s="91"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
     </row>
     <row r="2" ht="18.95" customHeight="1">
-      <c r="A2" s="74"/>
-      <c r="B2" t="s" s="75">
+      <c r="A2" s="93"/>
+      <c r="B2" t="s" s="94">
         <v>135</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
     </row>
     <row r="3" ht="18.95" customHeight="1">
-      <c r="A3" s="74"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
+      <c r="A3" s="93"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
     </row>
     <row r="4" ht="18.95" customHeight="1">
-      <c r="A4" s="74"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
     </row>
     <row r="5" ht="18.95" customHeight="1">
-      <c r="A5" s="72"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="72"/>
-      <c r="E5" t="s" s="79">
+      <c r="A5" s="91"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="91"/>
+      <c r="E5" t="s" s="98">
         <v>136</v>
       </c>
-      <c r="F5" t="s" s="80">
+      <c r="F5" t="s" s="99">
         <v>140</v>
       </c>
     </row>
     <row r="6" ht="18.95" customHeight="1">
-      <c r="A6" s="72"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
+      <c r="A6" s="91"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
     </row>
     <row r="7" ht="18.95" customHeight="1">
-      <c r="A7" s="72"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
+      <c r="A7" s="91"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
     </row>
     <row r="8" ht="18.95" customHeight="1">
-      <c r="A8" s="72"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
+      <c r="A8" s="91"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
     </row>
     <row r="9" ht="18.95" customHeight="1">
-      <c r="A9" s="72"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
+      <c r="A9" s="91"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
     </row>
     <row r="10" ht="18.95" customHeight="1">
-      <c r="A10" s="72"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="1">
